--- a/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
-        <v>18.66666666666667</v>
-      </c>
       <c r="H2" t="n">
-        <v>62.66666666666666</v>
+        <v>27</v>
       </c>
       <c r="I2" t="n">
-        <v>62.71</v>
+        <v>27.31020762633142</v>
       </c>
       <c r="J2" t="n">
-        <v>57.57</v>
+        <v>26.46351137405487</v>
       </c>
       <c r="K2" t="n">
-        <v>23.1</v>
+        <v>7.736666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>167.1766666666666</v>
+        <v>14.59666666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>6039.349999999999</v>
+        <v>675.9400000000001</v>
       </c>
     </row>
     <row r="3">
@@ -571,31 +571,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>38.23</v>
+        <v>24.66990551005223</v>
       </c>
       <c r="J3" t="n">
-        <v>31.86</v>
+        <v>23.91311652051354</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>87.13</v>
+        <v>48.67</v>
       </c>
       <c r="M3" t="n">
-        <v>3744.3</v>
+        <v>1527.07</v>
       </c>
     </row>
     <row r="4">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>77.8</v>
+        <v>29.84446436871178</v>
       </c>
       <c r="J4" t="n">
-        <v>68.06999999999999</v>
+        <v>28.37739611343147</v>
       </c>
       <c r="K4" t="n">
-        <v>32.06</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>180.23</v>
+        <v>25.57</v>
       </c>
       <c r="M4" t="n">
-        <v>8599.23</v>
+        <v>1022.91</v>
       </c>
     </row>
     <row r="5">
@@ -669,31 +669,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>72.09999999999999</v>
+        <v>27.98228172245824</v>
       </c>
       <c r="J5" t="n">
-        <v>67.41</v>
+        <v>27.98228172245824</v>
       </c>
       <c r="K5" t="n">
-        <v>31.59</v>
+        <v>10.69</v>
       </c>
       <c r="L5" t="n">
-        <v>211.58</v>
+        <v>45.06</v>
       </c>
       <c r="M5" t="n">
-        <v>8914.52</v>
+        <v>1560.3</v>
       </c>
     </row>
     <row r="6">
@@ -718,31 +718,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
         <v>30</v>
       </c>
-      <c r="G6" t="n">
-        <v>18</v>
-      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>64.72</v>
+        <v>27.07958939152019</v>
       </c>
       <c r="J6" t="n">
-        <v>53.65</v>
+        <v>26.31266961338196</v>
       </c>
       <c r="K6" t="n">
-        <v>25.69</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>162.86</v>
+        <v>28.9</v>
       </c>
       <c r="M6" t="n">
-        <v>6755.05</v>
+        <v>900.88</v>
       </c>
     </row>
     <row r="7">
@@ -767,31 +767,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
         <v>30</v>
       </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
       <c r="H7" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>74.78</v>
+        <v>27.11636580411095</v>
       </c>
       <c r="J7" t="n">
-        <v>72.77</v>
+        <v>25.4734130578746</v>
       </c>
       <c r="K7" t="n">
-        <v>30.44</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>190.65</v>
+        <v>27.28</v>
       </c>
       <c r="M7" t="n">
-        <v>8334.049999999999</v>
+        <v>998.4299999999999</v>
       </c>
     </row>
     <row r="8">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23</v>
+      </c>
+      <c r="H8" t="n">
         <v>30</v>
       </c>
-      <c r="G8" t="n">
-        <v>18</v>
-      </c>
-      <c r="H8" t="n">
-        <v>70.5</v>
-      </c>
       <c r="I8" t="n">
-        <v>70.59</v>
+        <v>29.89804148791742</v>
       </c>
       <c r="J8" t="n">
-        <v>62.70999999999999</v>
+        <v>25.27204047368249</v>
       </c>
       <c r="K8" t="n">
-        <v>29.035</v>
+        <v>9.57</v>
       </c>
       <c r="L8" t="n">
-        <v>175.22</v>
+        <v>32.525</v>
       </c>
       <c r="M8" t="n">
-        <v>7643.32</v>
+        <v>1292.09</v>
       </c>
     </row>
     <row r="9">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="I9" t="n">
-        <v>138.5</v>
+        <v>61.28108273875971</v>
       </c>
       <c r="J9" t="n">
-        <v>132.8</v>
+        <v>56.484986570908</v>
       </c>
       <c r="K9" t="n">
-        <v>55.92</v>
+        <v>23.94</v>
       </c>
       <c r="L9" t="n">
-        <v>148.53</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>13209.68</v>
+        <v>4554.62</v>
       </c>
     </row>
     <row r="10">
@@ -914,31 +914,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>124.5</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>124.42</v>
+        <v>56.55883428515158</v>
       </c>
       <c r="J10" t="n">
-        <v>108.325</v>
+        <v>47.83075787003979</v>
       </c>
       <c r="K10" t="n">
-        <v>50.975</v>
+        <v>20.31</v>
       </c>
       <c r="L10" t="n">
-        <v>120.545</v>
+        <v>50.65</v>
       </c>
       <c r="M10" t="n">
-        <v>11961.16</v>
+        <v>3190.26</v>
       </c>
     </row>
     <row r="11">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>169.69</v>
+        <v>79.73374110489735</v>
       </c>
       <c r="J11" t="n">
-        <v>150.24</v>
+        <v>65.47929746528359</v>
       </c>
       <c r="K11" t="n">
-        <v>63.34</v>
+        <v>27.95</v>
       </c>
       <c r="L11" t="n">
-        <v>96.90000000000001</v>
+        <v>63.85</v>
       </c>
       <c r="M11" t="n">
-        <v>13351.68</v>
+        <v>4441.71</v>
       </c>
     </row>
     <row r="12">
@@ -1012,31 +1012,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>139.17</v>
+        <v>55.89726241208218</v>
       </c>
       <c r="J12" t="n">
-        <v>122.4</v>
+        <v>54.82421742710823</v>
       </c>
       <c r="K12" t="n">
-        <v>56.36</v>
+        <v>20.2</v>
       </c>
       <c r="L12" t="n">
-        <v>124.24</v>
+        <v>43.22</v>
       </c>
       <c r="M12" t="n">
-        <v>13350.31</v>
+        <v>2962.44</v>
       </c>
     </row>
     <row r="13">
@@ -1061,31 +1061,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="I13" t="n">
-        <v>208.26</v>
+        <v>86.04888669652568</v>
       </c>
       <c r="J13" t="n">
-        <v>211.61</v>
+        <v>85.9817676332346</v>
       </c>
       <c r="K13" t="n">
-        <v>115.19</v>
+        <v>33.76</v>
       </c>
       <c r="L13" t="n">
-        <v>135.09</v>
+        <v>68.17</v>
       </c>
       <c r="M13" t="n">
-        <v>25421.91</v>
+        <v>6069.61</v>
       </c>
     </row>
     <row r="14">
@@ -1110,31 +1110,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" t="n">
         <v>30</v>
       </c>
-      <c r="G14" t="n">
-        <v>20</v>
-      </c>
       <c r="H14" t="n">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n">
-        <v>166.67</v>
+        <v>66.49893677870003</v>
       </c>
       <c r="J14" t="n">
-        <v>136.15</v>
+        <v>66.49893677870003</v>
       </c>
       <c r="K14" t="n">
-        <v>66.51000000000001</v>
+        <v>22.55</v>
       </c>
       <c r="L14" t="n">
-        <v>124.63</v>
+        <v>36.83</v>
       </c>
       <c r="M14" t="n">
-        <v>16802.99</v>
+        <v>2333.51</v>
       </c>
     </row>
     <row r="15">
@@ -1159,31 +1159,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>144</v>
+        <v>78.5</v>
       </c>
       <c r="I15" t="n">
-        <v>144.205</v>
+        <v>74.56367529512879</v>
       </c>
       <c r="J15" t="n">
-        <v>134.31</v>
+        <v>67.15609577590436</v>
       </c>
       <c r="K15" t="n">
-        <v>57.31</v>
+        <v>25.015</v>
       </c>
       <c r="L15" t="n">
-        <v>115.625</v>
+        <v>50.72</v>
       </c>
       <c r="M15" t="n">
-        <v>13693.54</v>
+        <v>3870.135</v>
       </c>
     </row>
     <row r="16">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="I16" t="n">
-        <v>180.08</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="J16" t="n">
-        <v>170.69</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="K16" t="n">
-        <v>66.48</v>
+        <v>23.41</v>
       </c>
       <c r="L16" t="n">
-        <v>134.82</v>
+        <v>20.02</v>
       </c>
       <c r="M16" t="n">
-        <v>16123.5</v>
+        <v>2279.12</v>
       </c>
     </row>
     <row r="17">
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="I17" t="n">
-        <v>140.52</v>
+        <v>61.72032565738297</v>
       </c>
       <c r="J17" t="n">
-        <v>137.17</v>
+        <v>54.59631570805864</v>
       </c>
       <c r="K17" t="n">
-        <v>54.68</v>
+        <v>22</v>
       </c>
       <c r="L17" t="n">
-        <v>95.64</v>
+        <v>52.39</v>
       </c>
       <c r="M17" t="n">
-        <v>13642.14</v>
+        <v>3149.63</v>
       </c>
     </row>
     <row r="18">
@@ -1309,28 +1309,28 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
+        <v>32</v>
+      </c>
+      <c r="G18" t="n">
         <v>30</v>
       </c>
-      <c r="G18" t="n">
-        <v>28</v>
-      </c>
       <c r="H18" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I18" t="n">
-        <v>91.22</v>
+        <v>39.47438571926202</v>
       </c>
       <c r="J18" t="n">
-        <v>74.78999999999999</v>
+        <v>33.58541036377354</v>
       </c>
       <c r="K18" t="n">
-        <v>33.36</v>
+        <v>12.75</v>
       </c>
       <c r="L18" t="n">
-        <v>127.32</v>
+        <v>26.9</v>
       </c>
       <c r="M18" t="n">
-        <v>8082.37</v>
+        <v>1285.94</v>
       </c>
     </row>
     <row r="19">
@@ -1351,35 +1351,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I19" t="n">
-        <v>14.42</v>
+        <v>46.60838020806955</v>
       </c>
       <c r="J19" t="n">
-        <v>17.43</v>
+        <v>45.50548823384586</v>
       </c>
       <c r="K19" t="n">
-        <v>7.91</v>
+        <v>16.8</v>
       </c>
       <c r="L19" t="n">
-        <v>211.15</v>
+        <v>42.67</v>
       </c>
       <c r="M19" t="n">
-        <v>2385.02</v>
+        <v>2527.21</v>
       </c>
     </row>
     <row r="20">
@@ -1400,35 +1400,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="I20" t="n">
-        <v>112.68</v>
+        <v>41.45321952802237</v>
       </c>
       <c r="J20" t="n">
-        <v>101.61</v>
+        <v>38.08416943505104</v>
       </c>
       <c r="K20" t="n">
-        <v>41.45</v>
+        <v>16.31</v>
       </c>
       <c r="L20" t="n">
-        <v>93.56999999999999</v>
+        <v>76.73</v>
       </c>
       <c r="M20" t="n">
-        <v>10284.91</v>
+        <v>3020.08</v>
       </c>
     </row>
     <row r="21">
@@ -1449,35 +1449,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I21" t="n">
-        <v>103.63</v>
+        <v>60.54726081217567</v>
       </c>
       <c r="J21" t="n">
-        <v>88.53</v>
+        <v>53.71663242988635</v>
       </c>
       <c r="K21" t="n">
-        <v>40.22</v>
+        <v>22.47</v>
       </c>
       <c r="L21" t="n">
-        <v>126.35</v>
+        <v>55.65</v>
       </c>
       <c r="M21" t="n">
-        <v>10006.42</v>
+        <v>3430.23</v>
       </c>
     </row>
     <row r="22">
@@ -1498,35 +1498,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>139.84</v>
+        <v>43.7078158393041</v>
       </c>
       <c r="J22" t="n">
-        <v>142.86</v>
+        <v>39.4870267756756</v>
       </c>
       <c r="K22" t="n">
-        <v>56.84</v>
+        <v>14.61</v>
       </c>
       <c r="L22" t="n">
-        <v>96.06</v>
+        <v>48.17</v>
       </c>
       <c r="M22" t="n">
-        <v>10449.78</v>
+        <v>2048.13</v>
       </c>
     </row>
     <row r="23">
@@ -1547,46 +1547,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I23" t="n">
-        <v>85.84999999999999</v>
+        <v>68.50216595433885</v>
       </c>
       <c r="J23" t="n">
-        <v>71.08999999999999</v>
+        <v>59.80302178487835</v>
       </c>
       <c r="K23" t="n">
-        <v>34.17</v>
+        <v>25.565</v>
       </c>
       <c r="L23" t="n">
-        <v>133.17</v>
+        <v>61.75</v>
       </c>
       <c r="M23" t="n">
-        <v>9227.84</v>
+        <v>4147.379999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1596,35 +1596,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="I24" t="n">
-        <v>153.425</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="J24" t="n">
-        <v>149.235</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="K24" t="n">
-        <v>63.265</v>
+        <v>12.88</v>
       </c>
       <c r="L24" t="n">
-        <v>90.70999999999999</v>
+        <v>26.48</v>
       </c>
       <c r="M24" t="n">
-        <v>13585.61</v>
+        <v>1371.13</v>
       </c>
     </row>
     <row r="25">
@@ -1645,35 +1645,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="I25" t="n">
-        <v>102.62</v>
+        <v>38.80450270738866</v>
       </c>
       <c r="J25" t="n">
-        <v>90.21000000000001</v>
+        <v>38.80450270738866</v>
       </c>
       <c r="K25" t="n">
-        <v>42.11</v>
+        <v>12.6</v>
       </c>
       <c r="L25" t="n">
-        <v>184.2</v>
+        <v>41.29</v>
       </c>
       <c r="M25" t="n">
-        <v>11440.56</v>
+        <v>1892.19</v>
       </c>
     </row>
     <row r="26">
@@ -1694,35 +1694,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I26" t="n">
-        <v>84.17999999999999</v>
+        <v>27.14364632815601</v>
       </c>
       <c r="J26" t="n">
-        <v>79.14999999999999</v>
+        <v>25.20432971540769</v>
       </c>
       <c r="K26" t="n">
-        <v>36.99</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>203.45</v>
+        <v>38.725</v>
       </c>
       <c r="M26" t="n">
-        <v>10095.6</v>
+        <v>1192.36</v>
       </c>
     </row>
     <row r="27">
@@ -1743,35 +1743,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H27" t="n">
-        <v>59.5</v>
+        <v>37</v>
       </c>
       <c r="I27" t="n">
-        <v>59.355</v>
+        <v>37.60947004445926</v>
       </c>
       <c r="J27" t="n">
-        <v>53.31999999999999</v>
+        <v>37.60947004445926</v>
       </c>
       <c r="K27" t="n">
-        <v>21.765</v>
+        <v>11.81</v>
       </c>
       <c r="L27" t="n">
-        <v>116.425</v>
+        <v>30.5</v>
       </c>
       <c r="M27" t="n">
-        <v>5565.235</v>
+        <v>1210.37</v>
       </c>
     </row>
     <row r="28">
@@ -1792,35 +1792,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" t="n">
         <v>28</v>
       </c>
-      <c r="G28" t="n">
-        <v>18</v>
-      </c>
       <c r="H28" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I28" t="n">
-        <v>94.56999999999999</v>
+        <v>26.26971158178306</v>
       </c>
       <c r="J28" t="n">
-        <v>74.10999999999999</v>
+        <v>25.75981246323574</v>
       </c>
       <c r="K28" t="n">
-        <v>41.71</v>
+        <v>9.09</v>
       </c>
       <c r="L28" t="n">
-        <v>161.77</v>
+        <v>31.29</v>
       </c>
       <c r="M28" t="n">
-        <v>11459.74</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="29">
@@ -1841,35 +1841,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
+        <v>32</v>
+      </c>
+      <c r="G29" t="n">
         <v>30</v>
       </c>
-      <c r="G29" t="n">
-        <v>20</v>
-      </c>
       <c r="H29" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I29" t="n">
-        <v>65.73</v>
+        <v>39.88071382188507</v>
       </c>
       <c r="J29" t="n">
-        <v>58.35</v>
+        <v>38.94978139638465</v>
       </c>
       <c r="K29" t="n">
-        <v>23.7</v>
+        <v>12.89</v>
       </c>
       <c r="L29" t="n">
-        <v>122.89</v>
+        <v>29.12</v>
       </c>
       <c r="M29" t="n">
-        <v>5801.06</v>
+        <v>1197.2</v>
       </c>
     </row>
     <row r="30">
@@ -1890,35 +1890,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
+        <v>32</v>
+      </c>
+      <c r="G30" t="n">
         <v>30</v>
       </c>
-      <c r="G30" t="n">
-        <v>20</v>
-      </c>
       <c r="H30" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I30" t="n">
-        <v>94.89999999999999</v>
+        <v>32.62561649087784</v>
       </c>
       <c r="J30" t="n">
-        <v>81.14999999999999</v>
+        <v>31.71671240905515</v>
       </c>
       <c r="K30" t="n">
-        <v>36.03</v>
+        <v>10.33</v>
       </c>
       <c r="L30" t="n">
-        <v>135.88</v>
+        <v>31.01</v>
       </c>
       <c r="M30" t="n">
-        <v>9176.41</v>
+        <v>1107.96</v>
       </c>
     </row>
     <row r="31">
@@ -1939,41 +1939,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H31" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I31" t="n">
-        <v>74.11</v>
+        <v>25.41239199326127</v>
       </c>
       <c r="J31" t="n">
-        <v>62.04000000000001</v>
+        <v>23.1067866318623</v>
       </c>
       <c r="K31" t="n">
-        <v>27.75</v>
+        <v>8.99</v>
       </c>
       <c r="L31" t="n">
-        <v>139.37</v>
+        <v>26.98</v>
       </c>
       <c r="M31" t="n">
-        <v>7096.2</v>
+        <v>1088.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1988,35 +1988,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I32" t="n">
-        <v>62.38</v>
+        <v>27.92222181108417</v>
       </c>
       <c r="J32" t="n">
-        <v>52.32</v>
+        <v>27.92222181108417</v>
       </c>
       <c r="K32" t="n">
-        <v>23.96</v>
+        <v>9.68</v>
       </c>
       <c r="L32" t="n">
-        <v>142.12</v>
+        <v>37.35</v>
       </c>
       <c r="M32" t="n">
-        <v>6040.1</v>
+        <v>1364.07</v>
       </c>
     </row>
     <row r="33">
@@ -2037,35 +2037,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
+        <v>32</v>
+      </c>
+      <c r="G33" t="n">
         <v>30</v>
       </c>
-      <c r="G33" t="n">
-        <v>18</v>
-      </c>
       <c r="H33" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I33" t="n">
-        <v>67.06999999999999</v>
+        <v>24.94767686517443</v>
       </c>
       <c r="J33" t="n">
-        <v>60.7</v>
+        <v>20.70536737029231</v>
       </c>
       <c r="K33" t="n">
-        <v>25.85</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>114.05</v>
+        <v>31.39</v>
       </c>
       <c r="M33" t="n">
-        <v>5726.84</v>
+        <v>1034.56</v>
       </c>
     </row>
     <row r="34">
@@ -2086,35 +2086,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H34" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I34" t="n">
-        <v>54.31999999999999</v>
+        <v>29.44430377451019</v>
       </c>
       <c r="J34" t="n">
-        <v>49.63</v>
+        <v>26.78382010850035</v>
       </c>
       <c r="K34" t="n">
-        <v>20.28</v>
+        <v>10.92</v>
       </c>
       <c r="L34" t="n">
-        <v>116.29</v>
+        <v>57.75</v>
       </c>
       <c r="M34" t="n">
-        <v>4972</v>
+        <v>1817.25</v>
       </c>
     </row>
     <row r="35">
@@ -2135,35 +2135,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
+        <v>32</v>
+      </c>
+      <c r="G35" t="n">
         <v>30</v>
       </c>
-      <c r="G35" t="n">
-        <v>20</v>
-      </c>
       <c r="H35" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I35" t="n">
-        <v>73.78</v>
+        <v>17.6058226484109</v>
       </c>
       <c r="J35" t="n">
-        <v>69.08999999999999</v>
+        <v>16.03373009524854</v>
       </c>
       <c r="K35" t="n">
-        <v>31.17</v>
+        <v>6.25</v>
       </c>
       <c r="L35" t="n">
-        <v>139.34</v>
+        <v>24.48</v>
       </c>
       <c r="M35" t="n">
-        <v>7738.17</v>
+        <v>680.63</v>
       </c>
     </row>
     <row r="36">
@@ -2184,35 +2184,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I36" t="n">
-        <v>44.93</v>
+        <v>27.74748227407915</v>
       </c>
       <c r="J36" t="n">
-        <v>44.26000000000001</v>
+        <v>23.3497521242054</v>
       </c>
       <c r="K36" t="n">
-        <v>17.94</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>145.22</v>
+        <v>39.85</v>
       </c>
       <c r="M36" t="n">
-        <v>4449.28</v>
+        <v>1382.74</v>
       </c>
     </row>
     <row r="37">
@@ -2233,35 +2233,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
+        <v>32</v>
+      </c>
+      <c r="G37" t="n">
         <v>30</v>
       </c>
-      <c r="G37" t="n">
-        <v>20</v>
-      </c>
       <c r="H37" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>68.41</v>
+        <v>36.65535835810059</v>
       </c>
       <c r="J37" t="n">
-        <v>57.01</v>
+        <v>36.03116282464502</v>
       </c>
       <c r="K37" t="n">
-        <v>26.47</v>
+        <v>12.22</v>
       </c>
       <c r="L37" t="n">
-        <v>146</v>
+        <v>37.99</v>
       </c>
       <c r="M37" t="n">
-        <v>6377.62</v>
+        <v>1396.3</v>
       </c>
     </row>
     <row r="38">
@@ -2282,35 +2282,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>30</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I38" t="n">
-        <v>83.16</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="J38" t="n">
-        <v>68.06999999999999</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="K38" t="n">
-        <v>29.64</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>88.15000000000001</v>
+        <v>15.78</v>
       </c>
       <c r="M38" t="n">
-        <v>6467.83</v>
+        <v>937.85</v>
       </c>
     </row>
     <row r="39">
@@ -2331,35 +2331,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H39" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I39" t="n">
-        <v>78.47</v>
+        <v>30.859845750899</v>
       </c>
       <c r="J39" t="n">
-        <v>67.06999999999999</v>
+        <v>25.24704871411539</v>
       </c>
       <c r="K39" t="n">
-        <v>29.08</v>
+        <v>10.24</v>
       </c>
       <c r="L39" t="n">
-        <v>146.41</v>
+        <v>41.83</v>
       </c>
       <c r="M39" t="n">
-        <v>7069.06</v>
+        <v>1583.9</v>
       </c>
     </row>
     <row r="40">
@@ -2380,46 +2380,46 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
+        <v>32</v>
+      </c>
+      <c r="G40" t="n">
         <v>30</v>
       </c>
-      <c r="G40" t="n">
-        <v>20</v>
-      </c>
       <c r="H40" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I40" t="n">
-        <v>65.73</v>
+        <v>31.08026951869021</v>
       </c>
       <c r="J40" t="n">
-        <v>56.68000000000001</v>
+        <v>30.22551736404741</v>
       </c>
       <c r="K40" t="n">
-        <v>26.69</v>
+        <v>11.34</v>
       </c>
       <c r="L40" t="n">
-        <v>131.72</v>
+        <v>41.58</v>
       </c>
       <c r="M40" t="n">
-        <v>6296.06</v>
+        <v>1332.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2429,35 +2429,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
+        <v>32</v>
+      </c>
+      <c r="G41" t="n">
         <v>30</v>
       </c>
-      <c r="G41" t="n">
-        <v>20</v>
-      </c>
       <c r="H41" t="n">
-        <v>79</v>
+        <v>46.5</v>
       </c>
       <c r="I41" t="n">
-        <v>79.81999999999999</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="J41" t="n">
-        <v>71.77</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="K41" t="n">
-        <v>29.73</v>
+        <v>15.655</v>
       </c>
       <c r="L41" t="n">
-        <v>96.76000000000001</v>
+        <v>25.325</v>
       </c>
       <c r="M41" t="n">
-        <v>6628.12</v>
+        <v>1905.95</v>
       </c>
     </row>
     <row r="42">
@@ -2478,35 +2478,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H42" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I42" t="n">
-        <v>109.49</v>
+        <v>77.89964286114466</v>
       </c>
       <c r="J42" t="n">
-        <v>94.40000000000001</v>
+        <v>69.88378466261996</v>
       </c>
       <c r="K42" t="n">
-        <v>43.465</v>
+        <v>27.95</v>
       </c>
       <c r="L42" t="n">
-        <v>189.6</v>
+        <v>53.02</v>
       </c>
       <c r="M42" t="n">
-        <v>11780.58</v>
+        <v>4564.14</v>
       </c>
     </row>
     <row r="43">
@@ -2527,35 +2527,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H43" t="n">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="I43" t="n">
-        <v>189.81</v>
+        <v>99.31498765662765</v>
       </c>
       <c r="J43" t="n">
-        <v>188.47</v>
+        <v>95.37481608003014</v>
       </c>
       <c r="K43" t="n">
-        <v>90.45999999999999</v>
+        <v>30.35</v>
       </c>
       <c r="L43" t="n">
-        <v>206.84</v>
+        <v>50.18</v>
       </c>
       <c r="M43" t="n">
-        <v>28160.15</v>
+        <v>4494.74</v>
       </c>
     </row>
     <row r="44">
@@ -2576,35 +2576,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H44" t="n">
-        <v>187</v>
+        <v>91.5</v>
       </c>
       <c r="I44" t="n">
-        <v>187.47</v>
+        <v>89.56230017992026</v>
       </c>
       <c r="J44" t="n">
-        <v>178.41</v>
+        <v>89.56230017992026</v>
       </c>
       <c r="K44" t="n">
-        <v>71.22</v>
+        <v>28.495</v>
       </c>
       <c r="L44" t="n">
-        <v>92</v>
+        <v>43.915</v>
       </c>
       <c r="M44" t="n">
-        <v>19613.36</v>
+        <v>4409.985000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2625,35 +2625,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
+        <v>32</v>
+      </c>
+      <c r="G45" t="n">
         <v>30</v>
       </c>
-      <c r="G45" t="n">
-        <v>20</v>
-      </c>
       <c r="H45" t="n">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="I45" t="n">
-        <v>188.97</v>
+        <v>57.01279887086299</v>
       </c>
       <c r="J45" t="n">
-        <v>174.89</v>
+        <v>54.53279241896345</v>
       </c>
       <c r="K45" t="n">
-        <v>85.215</v>
+        <v>19.62</v>
       </c>
       <c r="L45" t="n">
-        <v>203.725</v>
+        <v>30.04</v>
       </c>
       <c r="M45" t="n">
-        <v>24923.13</v>
+        <v>2359.18</v>
       </c>
     </row>
     <row r="46">
@@ -2674,35 +2674,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H46" t="n">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="I46" t="n">
-        <v>137.16</v>
+        <v>34.692940575509</v>
       </c>
       <c r="J46" t="n">
-        <v>113.69</v>
+        <v>29.04371331668617</v>
       </c>
       <c r="K46" t="n">
-        <v>52.9</v>
+        <v>14.05</v>
       </c>
       <c r="L46" t="n">
-        <v>114.63</v>
+        <v>43.38</v>
       </c>
       <c r="M46" t="n">
-        <v>13788.54</v>
+        <v>1834.96</v>
       </c>
     </row>
     <row r="47">
@@ -2723,84 +2723,84 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H47" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I47" t="n">
-        <v>86.84999999999999</v>
+        <v>20.3803591604263</v>
       </c>
       <c r="J47" t="n">
-        <v>86.18000000000001</v>
+        <v>17.44241322820536</v>
       </c>
       <c r="K47" t="n">
-        <v>39.85</v>
+        <v>6.59</v>
       </c>
       <c r="L47" t="n">
-        <v>195.87</v>
+        <v>29.5</v>
       </c>
       <c r="M47" t="n">
-        <v>12143.53</v>
+        <v>1118.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18</v>
+      </c>
+      <c r="G48" t="n">
         <v>16</v>
       </c>
-      <c r="F48" t="n">
-        <v>34</v>
-      </c>
-      <c r="G48" t="n">
-        <v>18</v>
-      </c>
       <c r="H48" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I48" t="n">
-        <v>43.6</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="J48" t="n">
-        <v>36.22</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="K48" t="n">
-        <v>15.31</v>
+        <v>22.96</v>
       </c>
       <c r="L48" t="n">
-        <v>128.84</v>
+        <v>63.76</v>
       </c>
       <c r="M48" t="n">
-        <v>4169.25</v>
+        <v>3612.15</v>
       </c>
     </row>
     <row r="49">
@@ -2821,35 +2821,35 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G49" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I49" t="n">
-        <v>118.38</v>
+        <v>44.69992479110479</v>
       </c>
       <c r="J49" t="n">
-        <v>121.4</v>
+        <v>41.65069457049674</v>
       </c>
       <c r="K49" t="n">
-        <v>56.37</v>
+        <v>16.27</v>
       </c>
       <c r="L49" t="n">
-        <v>107.65</v>
+        <v>27.13</v>
       </c>
       <c r="M49" t="n">
-        <v>12034.39</v>
+        <v>1754.07</v>
       </c>
     </row>
     <row r="50">
@@ -2870,35 +2870,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
+        <v>32</v>
+      </c>
+      <c r="G50" t="n">
         <v>30</v>
       </c>
-      <c r="G50" t="n">
-        <v>18</v>
-      </c>
       <c r="H50" t="n">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="I50" t="n">
-        <v>120.06</v>
+        <v>47.42702990086497</v>
       </c>
       <c r="J50" t="n">
-        <v>105.63</v>
+        <v>40.54913382958789</v>
       </c>
       <c r="K50" t="n">
-        <v>51.7</v>
+        <v>15.9</v>
       </c>
       <c r="L50" t="n">
-        <v>146.09</v>
+        <v>32.27</v>
       </c>
       <c r="M50" t="n">
-        <v>13653.89</v>
+        <v>1849.96</v>
       </c>
     </row>
     <row r="51">
@@ -2919,35 +2919,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
+        <v>32</v>
+      </c>
+      <c r="G51" t="n">
         <v>30</v>
       </c>
-      <c r="G51" t="n">
-        <v>20</v>
-      </c>
       <c r="H51" t="n">
-        <v>114</v>
+        <v>27.5</v>
       </c>
       <c r="I51" t="n">
-        <v>114.35</v>
+        <v>26.29779599661987</v>
       </c>
       <c r="J51" t="n">
-        <v>93.90000000000001</v>
+        <v>22.08287738270607</v>
       </c>
       <c r="K51" t="n">
-        <v>45.2</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>132.56</v>
+        <v>22.935</v>
       </c>
       <c r="M51" t="n">
-        <v>12118.11</v>
+        <v>993.3099999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2968,35 +2968,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G52" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H52" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>64.215</v>
+        <v>13.29432725486207</v>
       </c>
       <c r="J52" t="n">
-        <v>54.495</v>
+        <v>13.15708531561203</v>
       </c>
       <c r="K52" t="n">
-        <v>25.595</v>
+        <v>3.74</v>
       </c>
       <c r="L52" t="n">
-        <v>161.255</v>
+        <v>6.65</v>
       </c>
       <c r="M52" t="n">
-        <v>7759.055</v>
+        <v>814.05</v>
       </c>
     </row>
     <row r="53">
@@ -3017,35 +3017,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G53" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H53" t="n">
-        <v>33</v>
+        <v>36.5</v>
       </c>
       <c r="I53" t="n">
-        <v>33.87</v>
+        <v>35.61002094677631</v>
       </c>
       <c r="J53" t="n">
-        <v>32.52999999999999</v>
+        <v>33.81904901861144</v>
       </c>
       <c r="K53" t="n">
-        <v>14.76</v>
+        <v>11.41</v>
       </c>
       <c r="L53" t="n">
-        <v>486.57</v>
+        <v>28.575</v>
       </c>
       <c r="M53" t="n">
-        <v>5623.93</v>
+        <v>1489.095</v>
       </c>
     </row>
     <row r="54">
@@ -3066,46 +3066,46 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
-        <v>78</v>
+        <v>39.5</v>
       </c>
       <c r="I54" t="n">
-        <v>77.8</v>
+        <v>37.48118625374406</v>
       </c>
       <c r="J54" t="n">
-        <v>71.935</v>
+        <v>32.31613656729445</v>
       </c>
       <c r="K54" t="n">
-        <v>29.21</v>
+        <v>12.67</v>
       </c>
       <c r="L54" t="n">
-        <v>137.945</v>
+        <v>23.195</v>
       </c>
       <c r="M54" t="n">
-        <v>8453.055</v>
+        <v>1337.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3115,35 +3115,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>89.5</v>
+        <v>126</v>
       </c>
       <c r="I55" t="n">
-        <v>89.87</v>
+        <v>119.1440398618296</v>
       </c>
       <c r="J55" t="n">
-        <v>78.47</v>
+        <v>88.5120814668456</v>
       </c>
       <c r="K55" t="n">
-        <v>35.105</v>
+        <v>42.74</v>
       </c>
       <c r="L55" t="n">
-        <v>132.75</v>
+        <v>33.33</v>
       </c>
       <c r="M55" t="n">
-        <v>9622.700000000001</v>
+        <v>4603.86</v>
       </c>
     </row>
     <row r="56">
@@ -3164,35 +3164,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H56" t="n">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="I56" t="n">
-        <v>275.66</v>
+        <v>91.47126299123049</v>
       </c>
       <c r="J56" t="n">
-        <v>222.67</v>
+        <v>90.3232009521228</v>
       </c>
       <c r="K56" t="n">
-        <v>97.41</v>
+        <v>32.65</v>
       </c>
       <c r="L56" t="n">
-        <v>83.92</v>
+        <v>44.36</v>
       </c>
       <c r="M56" t="n">
-        <v>19719.56</v>
+        <v>4986.41</v>
       </c>
     </row>
     <row r="57">
@@ -3213,35 +3213,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H57" t="n">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="I57" t="n">
-        <v>223.35</v>
+        <v>131.2630190390913</v>
       </c>
       <c r="J57" t="n">
-        <v>181.76</v>
+        <v>134.0697263200833</v>
       </c>
       <c r="K57" t="n">
-        <v>84.26000000000001</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>80.42</v>
+        <v>33.305</v>
       </c>
       <c r="M57" t="n">
-        <v>16923.88</v>
+        <v>4854.77</v>
       </c>
     </row>
     <row r="58">
@@ -3262,35 +3262,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H58" t="n">
-        <v>276.5</v>
+        <v>109</v>
       </c>
       <c r="I58" t="n">
-        <v>276.5</v>
+        <v>108.1612501826484</v>
       </c>
       <c r="J58" t="n">
-        <v>271.81</v>
+        <v>101.5637209913287</v>
       </c>
       <c r="K58" t="n">
-        <v>89.075</v>
+        <v>35.56</v>
       </c>
       <c r="L58" t="n">
-        <v>68.86</v>
+        <v>41.63</v>
       </c>
       <c r="M58" t="n">
-        <v>16403.045</v>
+        <v>5127.71</v>
       </c>
     </row>
     <row r="59">
@@ -3311,35 +3311,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="I59" t="n">
-        <v>240.45</v>
+        <v>106.2515261101972</v>
       </c>
       <c r="J59" t="n">
-        <v>206.91</v>
+        <v>99.44980825950968</v>
       </c>
       <c r="K59" t="n">
-        <v>90.45</v>
+        <v>41.26</v>
       </c>
       <c r="L59" t="n">
-        <v>103.41</v>
+        <v>55.04</v>
       </c>
       <c r="M59" t="n">
-        <v>19400.23</v>
+        <v>6939.63</v>
       </c>
     </row>
     <row r="60">
@@ -3360,35 +3360,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H60" t="n">
-        <v>251</v>
+        <v>121.5</v>
       </c>
       <c r="I60" t="n">
-        <v>251.18</v>
+        <v>119.4008563585834</v>
       </c>
       <c r="J60" t="n">
-        <v>212.95</v>
+        <v>104.9704822751009</v>
       </c>
       <c r="K60" t="n">
-        <v>99.36</v>
+        <v>39.81</v>
       </c>
       <c r="L60" t="n">
-        <v>72.20999999999999</v>
+        <v>37.045</v>
       </c>
       <c r="M60" t="n">
-        <v>16373.61</v>
+        <v>4898.985000000001</v>
       </c>
     </row>
     <row r="61">
@@ -3409,41 +3409,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H61" t="n">
-        <v>242.5</v>
+        <v>99</v>
       </c>
       <c r="I61" t="n">
-        <v>242.63</v>
+        <v>93.25259214827778</v>
       </c>
       <c r="J61" t="n">
-        <v>197.865</v>
+        <v>79.30519547624338</v>
       </c>
       <c r="K61" t="n">
-        <v>91.13</v>
+        <v>35.52</v>
       </c>
       <c r="L61" t="n">
-        <v>84.13</v>
+        <v>48.01</v>
       </c>
       <c r="M61" t="n">
-        <v>18616.355</v>
+        <v>5713.71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3458,35 +3458,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="I62" t="n">
-        <v>233.75</v>
+        <v>66.0591983786978</v>
       </c>
       <c r="J62" t="n">
-        <v>194.18</v>
+        <v>66.0591983786978</v>
       </c>
       <c r="K62" t="n">
-        <v>93.31999999999999</v>
+        <v>21.61</v>
       </c>
       <c r="L62" t="n">
-        <v>96.81</v>
+        <v>40.29</v>
       </c>
       <c r="M62" t="n">
-        <v>20411.98</v>
+        <v>3160.41</v>
       </c>
     </row>
     <row r="63">
@@ -3507,35 +3507,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
+        <v>34</v>
+      </c>
+      <c r="G63" t="n">
         <v>32</v>
       </c>
-      <c r="G63" t="n">
-        <v>20</v>
-      </c>
       <c r="H63" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="I63" t="n">
-        <v>136.83</v>
+        <v>59.16976230335201</v>
       </c>
       <c r="J63" t="n">
-        <v>129.12</v>
+        <v>59.16976230335201</v>
       </c>
       <c r="K63" t="n">
-        <v>46.61</v>
+        <v>17.45</v>
       </c>
       <c r="L63" t="n">
-        <v>83.15000000000001</v>
+        <v>9.52</v>
       </c>
       <c r="M63" t="n">
-        <v>7991.16</v>
+        <v>1904.19</v>
       </c>
     </row>
     <row r="64">
@@ -3556,35 +3556,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="I64" t="n">
-        <v>115.03</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="J64" t="n">
-        <v>94.91</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="K64" t="n">
-        <v>32.47</v>
+        <v>23.63</v>
       </c>
       <c r="L64" t="n">
-        <v>50.61</v>
+        <v>42.88</v>
       </c>
       <c r="M64" t="n">
-        <v>5071.71</v>
+        <v>3586.45</v>
       </c>
     </row>
     <row r="65">
@@ -3605,35 +3605,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
         <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="I65" t="n">
-        <v>135.82</v>
+        <v>85.49072515085162</v>
       </c>
       <c r="J65" t="n">
-        <v>127.1</v>
+        <v>80.38290886161178</v>
       </c>
       <c r="K65" t="n">
-        <v>47</v>
+        <v>26.28</v>
       </c>
       <c r="L65" t="n">
-        <v>67.93000000000001</v>
+        <v>54.39</v>
       </c>
       <c r="M65" t="n">
-        <v>9582.290000000001</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="66">
@@ -3654,35 +3654,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H66" t="n">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="I66" t="n">
-        <v>149.9</v>
+        <v>68.506495392711</v>
       </c>
       <c r="J66" t="n">
-        <v>127.44</v>
+        <v>64.14140679385784</v>
       </c>
       <c r="K66" t="n">
-        <v>48.8</v>
+        <v>21.75</v>
       </c>
       <c r="L66" t="n">
-        <v>78.48</v>
+        <v>36.39</v>
       </c>
       <c r="M66" t="n">
-        <v>9582.67</v>
+        <v>2954.34</v>
       </c>
     </row>
     <row r="67">
@@ -3703,35 +3703,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H67" t="n">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="I67" t="n">
-        <v>121.06</v>
+        <v>79.57000489281678</v>
       </c>
       <c r="J67" t="n">
-        <v>111</v>
+        <v>76.37024494227703</v>
       </c>
       <c r="K67" t="n">
-        <v>35.93</v>
+        <v>27.11</v>
       </c>
       <c r="L67" t="n">
-        <v>51.24</v>
+        <v>46.19</v>
       </c>
       <c r="M67" t="n">
-        <v>6213.36</v>
+        <v>4199.6</v>
       </c>
     </row>
     <row r="68">
@@ -3752,35 +3752,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
         <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="I68" t="n">
-        <v>150.24</v>
+        <v>80.21300094189951</v>
       </c>
       <c r="J68" t="n">
-        <v>127.1</v>
+        <v>71.80208819522906</v>
       </c>
       <c r="K68" t="n">
-        <v>45.17</v>
+        <v>25.88</v>
       </c>
       <c r="L68" t="n">
-        <v>63.92</v>
+        <v>35.34</v>
       </c>
       <c r="M68" t="n">
-        <v>8381.879999999999</v>
+        <v>3543.97</v>
       </c>
     </row>
     <row r="69">
@@ -3801,46 +3801,46 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>141</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="I69" t="n">
-        <v>141.19</v>
+        <v>78.90310855310231</v>
       </c>
       <c r="J69" t="n">
-        <v>135.82</v>
+        <v>75.17833969041651</v>
       </c>
       <c r="K69" t="n">
-        <v>45.35</v>
+        <v>24.88</v>
       </c>
       <c r="L69" t="n">
-        <v>54.39</v>
+        <v>42.47666666666667</v>
       </c>
       <c r="M69" t="n">
-        <v>8426.459999999999</v>
+        <v>3818.593333333334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3850,35 +3850,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>24</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H70" t="n">
-        <v>138.3333333333333</v>
+        <v>66.5</v>
       </c>
       <c r="I70" t="n">
-        <v>138.8366666666667</v>
+        <v>61.22113693769167</v>
       </c>
       <c r="J70" t="n">
-        <v>129.4466666666667</v>
+        <v>58.85752597358655</v>
       </c>
       <c r="K70" t="n">
-        <v>41.25666666666667</v>
+        <v>23.3</v>
       </c>
       <c r="L70" t="n">
-        <v>58.41333333333333</v>
+        <v>49.615</v>
       </c>
       <c r="M70" t="n">
-        <v>6902.243333333333</v>
+        <v>3451.505</v>
       </c>
     </row>
     <row r="71">
@@ -3899,35 +3899,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H71" t="n">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="I71" t="n">
-        <v>157.45</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="J71" t="n">
-        <v>128.11</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="K71" t="n">
-        <v>72.19499999999999</v>
+        <v>21.08</v>
       </c>
       <c r="L71" t="n">
-        <v>160.84</v>
+        <v>33.52</v>
       </c>
       <c r="M71" t="n">
-        <v>19651.475</v>
+        <v>2607.98</v>
       </c>
     </row>
     <row r="72">
@@ -3948,35 +3948,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
+        <v>30</v>
+      </c>
+      <c r="G72" t="n">
         <v>28</v>
       </c>
-      <c r="G72" t="n">
-        <v>18</v>
-      </c>
       <c r="H72" t="n">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="I72" t="n">
-        <v>146.55</v>
+        <v>56.27199872207184</v>
       </c>
       <c r="J72" t="n">
-        <v>114.02</v>
+        <v>56.27199872207184</v>
       </c>
       <c r="K72" t="n">
-        <v>60.73</v>
+        <v>20.41</v>
       </c>
       <c r="L72" t="n">
-        <v>105.68</v>
+        <v>35.05</v>
       </c>
       <c r="M72" t="n">
-        <v>15117.76</v>
+        <v>2513.76</v>
       </c>
     </row>
     <row r="73">
@@ -3997,35 +3997,35 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>30</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H73" t="n">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="I73" t="n">
-        <v>156.28</v>
+        <v>45.92877912207641</v>
       </c>
       <c r="J73" t="n">
-        <v>153.93</v>
+        <v>39.41673357903083</v>
       </c>
       <c r="K73" t="n">
-        <v>65.66</v>
+        <v>13.88</v>
       </c>
       <c r="L73" t="n">
-        <v>131.49</v>
+        <v>15.97</v>
       </c>
       <c r="M73" t="n">
-        <v>17509.99</v>
+        <v>1884.88</v>
       </c>
     </row>
     <row r="74">
@@ -4046,35 +4046,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H74" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I74" t="n">
-        <v>96.92</v>
+        <v>69.07506137381468</v>
       </c>
       <c r="J74" t="n">
-        <v>84.51000000000001</v>
+        <v>68.19823150131346</v>
       </c>
       <c r="K74" t="n">
-        <v>32.99</v>
+        <v>23.35</v>
       </c>
       <c r="L74" t="n">
-        <v>98.56999999999999</v>
+        <v>27.44</v>
       </c>
       <c r="M74" t="n">
-        <v>8301.34</v>
+        <v>2670.9</v>
       </c>
     </row>
     <row r="75">
@@ -4095,35 +4095,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
+        <v>32</v>
+      </c>
+      <c r="G75" t="n">
         <v>30</v>
       </c>
-      <c r="G75" t="n">
-        <v>20</v>
-      </c>
       <c r="H75" t="n">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="I75" t="n">
-        <v>174.38</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="J75" t="n">
-        <v>155.94</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="K75" t="n">
-        <v>68.75</v>
+        <v>22.01</v>
       </c>
       <c r="L75" t="n">
-        <v>127.92</v>
+        <v>41.57</v>
       </c>
       <c r="M75" t="n">
-        <v>17405.68</v>
+        <v>2727.98</v>
       </c>
     </row>
     <row r="76">
@@ -4144,35 +4144,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
+        <v>32</v>
+      </c>
+      <c r="G76" t="n">
         <v>30</v>
       </c>
-      <c r="G76" t="n">
-        <v>20</v>
-      </c>
       <c r="H76" t="n">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="I76" t="n">
-        <v>153.93</v>
+        <v>44.21312536016151</v>
       </c>
       <c r="J76" t="n">
-        <v>140.85</v>
+        <v>42.76459551987627</v>
       </c>
       <c r="K76" t="n">
-        <v>61.1</v>
+        <v>15.45</v>
       </c>
       <c r="L76" t="n">
-        <v>117.26</v>
+        <v>23.16</v>
       </c>
       <c r="M76" t="n">
-        <v>15011.63</v>
+        <v>1854.75</v>
       </c>
     </row>
     <row r="77">
@@ -4193,35 +4193,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
+        <v>32</v>
+      </c>
+      <c r="G77" t="n">
         <v>30</v>
       </c>
-      <c r="G77" t="n">
-        <v>20</v>
-      </c>
       <c r="H77" t="n">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I77" t="n">
-        <v>112.68</v>
+        <v>61.46320937415982</v>
       </c>
       <c r="J77" t="n">
-        <v>105.31</v>
+        <v>61.46320937415982</v>
       </c>
       <c r="K77" t="n">
-        <v>46.59</v>
+        <v>21.71</v>
       </c>
       <c r="L77" t="n">
-        <v>137.57</v>
+        <v>34.42</v>
       </c>
       <c r="M77" t="n">
-        <v>13202.85</v>
+        <v>2076.71</v>
       </c>
     </row>
     <row r="78">
@@ -4242,41 +4242,41 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H78" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="I78" t="n">
-        <v>152.59</v>
+        <v>57.23390227948497</v>
       </c>
       <c r="J78" t="n">
-        <v>151.25</v>
+        <v>57.23390227948497</v>
       </c>
       <c r="K78" t="n">
-        <v>59.46</v>
+        <v>21.94</v>
       </c>
       <c r="L78" t="n">
-        <v>125.84</v>
+        <v>38</v>
       </c>
       <c r="M78" t="n">
-        <v>14830.6</v>
+        <v>2870.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4291,35 +4291,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>30</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H79" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="I79" t="n">
-        <v>153.59</v>
+        <v>55.74692233591907</v>
       </c>
       <c r="J79" t="n">
-        <v>131.13</v>
+        <v>53.29054195631661</v>
       </c>
       <c r="K79" t="n">
-        <v>65.48999999999999</v>
+        <v>18.34</v>
       </c>
       <c r="L79" t="n">
-        <v>123.98</v>
+        <v>29.98</v>
       </c>
       <c r="M79" t="n">
-        <v>16849.11</v>
+        <v>2135.85</v>
       </c>
     </row>
     <row r="80">
@@ -4340,35 +4340,35 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
+        <v>32</v>
+      </c>
+      <c r="G80" t="n">
         <v>30</v>
       </c>
-      <c r="G80" t="n">
-        <v>20</v>
-      </c>
       <c r="H80" t="n">
-        <v>144</v>
+        <v>43.5</v>
       </c>
       <c r="I80" t="n">
-        <v>144.2</v>
+        <v>42.79401379875322</v>
       </c>
       <c r="J80" t="n">
-        <v>142.86</v>
+        <v>41.93053322775759</v>
       </c>
       <c r="K80" t="n">
-        <v>59.11</v>
+        <v>13.125</v>
       </c>
       <c r="L80" t="n">
-        <v>148.92</v>
+        <v>20.93</v>
       </c>
       <c r="M80" t="n">
-        <v>17044.38</v>
+        <v>1262.655</v>
       </c>
     </row>
     <row r="81">
@@ -4389,35 +4389,35 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H81" t="n">
-        <v>103.5</v>
+        <v>37</v>
       </c>
       <c r="I81" t="n">
-        <v>102.95</v>
+        <v>37.1139849496659</v>
       </c>
       <c r="J81" t="n">
-        <v>94.405</v>
+        <v>33.43828079471414</v>
       </c>
       <c r="K81" t="n">
-        <v>38.665</v>
+        <v>10.41</v>
       </c>
       <c r="L81" t="n">
-        <v>126.11</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>9967.52</v>
+        <v>1100.22</v>
       </c>
     </row>
     <row r="82">
@@ -4438,35 +4438,35 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="n">
+        <v>32</v>
+      </c>
+      <c r="G82" t="n">
         <v>30</v>
       </c>
-      <c r="G82" t="n">
-        <v>28</v>
-      </c>
       <c r="H82" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I82" t="n">
-        <v>91.55</v>
+        <v>53.66307321626935</v>
       </c>
       <c r="J82" t="n">
-        <v>83.84</v>
+        <v>53.2065801772237</v>
       </c>
       <c r="K82" t="n">
-        <v>36.4</v>
+        <v>17.76</v>
       </c>
       <c r="L82" t="n">
-        <v>157.29</v>
+        <v>29.87</v>
       </c>
       <c r="M82" t="n">
-        <v>10504.11</v>
+        <v>1762.94</v>
       </c>
     </row>
     <row r="83">
@@ -4487,35 +4487,35 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
+        <v>32</v>
+      </c>
+      <c r="G83" t="n">
         <v>30</v>
       </c>
-      <c r="G83" t="n">
-        <v>20</v>
-      </c>
       <c r="H83" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I83" t="n">
-        <v>140.18</v>
+        <v>60.14358833222585</v>
       </c>
       <c r="J83" t="n">
-        <v>134.48</v>
+        <v>60.14358833222585</v>
       </c>
       <c r="K83" t="n">
-        <v>55.74</v>
+        <v>21.29</v>
       </c>
       <c r="L83" t="n">
-        <v>113.55</v>
+        <v>25.1</v>
       </c>
       <c r="M83" t="n">
-        <v>14850.01</v>
+        <v>2588.28</v>
       </c>
     </row>
     <row r="84">
@@ -4536,35 +4536,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H84" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="I84" t="n">
-        <v>152.92</v>
+        <v>97.35325665112374</v>
       </c>
       <c r="J84" t="n">
-        <v>134.14</v>
+        <v>78.81769772222889</v>
       </c>
       <c r="K84" t="n">
-        <v>61.26</v>
+        <v>28.24</v>
       </c>
       <c r="L84" t="n">
-        <v>140.89</v>
+        <v>21.44</v>
       </c>
       <c r="M84" t="n">
-        <v>16535.37</v>
+        <v>2527.4</v>
       </c>
     </row>
     <row r="85">
@@ -4585,35 +4585,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>32</v>
       </c>
       <c r="G85" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H85" t="n">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="I85" t="n">
-        <v>153.59</v>
+        <v>55.50028662687221</v>
       </c>
       <c r="J85" t="n">
-        <v>135.49</v>
+        <v>55.50028662687221</v>
       </c>
       <c r="K85" t="n">
-        <v>38.55</v>
+        <v>17.27</v>
       </c>
       <c r="L85" t="n">
-        <v>42.72</v>
+        <v>36.42</v>
       </c>
       <c r="M85" t="n">
-        <v>3462.56</v>
+        <v>2051.4</v>
       </c>
     </row>
     <row r="86">
@@ -4634,35 +4634,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>30</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H86" t="n">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="I86" t="n">
-        <v>140.18</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="J86" t="n">
-        <v>134.15</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="K86" t="n">
-        <v>56.34</v>
+        <v>18.71</v>
       </c>
       <c r="L86" t="n">
-        <v>157.69</v>
+        <v>31.05</v>
       </c>
       <c r="M86" t="n">
-        <v>16454.96</v>
+        <v>2480.36</v>
       </c>
     </row>
     <row r="87">
@@ -4683,46 +4683,46 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H87" t="n">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="I87" t="n">
-        <v>156.27</v>
+        <v>60.40129590663877</v>
       </c>
       <c r="J87" t="n">
-        <v>143.53</v>
+        <v>57.35624313697035</v>
       </c>
       <c r="K87" t="n">
-        <v>61.66</v>
+        <v>20.49</v>
       </c>
       <c r="L87" t="n">
-        <v>115.21</v>
+        <v>39.87</v>
       </c>
       <c r="M87" t="n">
-        <v>15174.66</v>
+        <v>3092.92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4732,35 +4732,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>32</v>
       </c>
       <c r="G88" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H88" t="n">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="I88" t="n">
-        <v>123.41</v>
+        <v>86.78742873443352</v>
       </c>
       <c r="J88" t="n">
-        <v>107.99</v>
+        <v>75.17787924541061</v>
       </c>
       <c r="K88" t="n">
-        <v>47.98</v>
+        <v>29.94</v>
       </c>
       <c r="L88" t="n">
-        <v>153.23</v>
+        <v>32.79</v>
       </c>
       <c r="M88" t="n">
-        <v>13300.14</v>
+        <v>3003.01</v>
       </c>
     </row>
     <row r="89">
@@ -4781,35 +4781,35 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G89" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="I89" t="n">
-        <v>208.25</v>
+        <v>113.7561632743857</v>
       </c>
       <c r="J89" t="n">
-        <v>170.69</v>
+        <v>98.80007362198285</v>
       </c>
       <c r="K89" t="n">
-        <v>80.37</v>
+        <v>41.09</v>
       </c>
       <c r="L89" t="n">
-        <v>152.47</v>
+        <v>54.86</v>
       </c>
       <c r="M89" t="n">
-        <v>21872.68</v>
+        <v>6457.9</v>
       </c>
     </row>
     <row r="90">
@@ -4830,35 +4830,35 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G90" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H90" t="n">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I90" t="n">
-        <v>274.66</v>
+        <v>137.50889554959</v>
       </c>
       <c r="J90" t="n">
-        <v>281.03</v>
+        <v>115.6751512896567</v>
       </c>
       <c r="K90" t="n">
-        <v>120.91</v>
+        <v>50.56</v>
       </c>
       <c r="L90" t="n">
-        <v>89.98999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="M90" t="n">
-        <v>25862.07</v>
+        <v>7528.27</v>
       </c>
     </row>
     <row r="91">
@@ -4879,35 +4879,35 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H91" t="n">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="I91" t="n">
-        <v>306.85</v>
+        <v>179.6598565617463</v>
       </c>
       <c r="J91" t="n">
-        <v>277.68</v>
+        <v>169.8854835883062</v>
       </c>
       <c r="K91" t="n">
-        <v>113.08</v>
+        <v>58.81</v>
       </c>
       <c r="L91" t="n">
-        <v>116.4</v>
+        <v>36.36</v>
       </c>
       <c r="M91" t="n">
-        <v>28961</v>
+        <v>7754.48</v>
       </c>
     </row>
     <row r="92">
@@ -4928,35 +4928,35 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
+        <v>32</v>
+      </c>
+      <c r="G92" t="n">
         <v>30</v>
       </c>
-      <c r="G92" t="n">
-        <v>20</v>
-      </c>
       <c r="H92" t="n">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="I92" t="n">
-        <v>312.89</v>
+        <v>186.8821991819847</v>
       </c>
       <c r="J92" t="n">
-        <v>312.89</v>
+        <v>174.5719788513643</v>
       </c>
       <c r="K92" t="n">
-        <v>88.61</v>
+        <v>59.93</v>
       </c>
       <c r="L92" t="n">
-        <v>53.59</v>
+        <v>22.44</v>
       </c>
       <c r="M92" t="n">
-        <v>17102.59</v>
+        <v>4690.96</v>
       </c>
     </row>
     <row r="93">
@@ -4977,35 +4977,35 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H93" t="n">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="I93" t="n">
-        <v>298.8</v>
+        <v>117.6803009571155</v>
       </c>
       <c r="J93" t="n">
-        <v>282.37</v>
+        <v>111.1138383525796</v>
       </c>
       <c r="K93" t="n">
-        <v>81.89</v>
+        <v>44.5</v>
       </c>
       <c r="L93" t="n">
-        <v>44.95</v>
+        <v>44.93</v>
       </c>
       <c r="M93" t="n">
-        <v>11856.75</v>
+        <v>6199.74</v>
       </c>
     </row>
     <row r="94">
@@ -5026,35 +5026,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H94" t="n">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="I94" t="n">
-        <v>279.35</v>
+        <v>131.2547899594067</v>
       </c>
       <c r="J94" t="n">
-        <v>237.43</v>
+        <v>107.7544080951072</v>
       </c>
       <c r="K94" t="n">
-        <v>119.14</v>
+        <v>43.695</v>
       </c>
       <c r="L94" t="n">
-        <v>172.65</v>
+        <v>39.84</v>
       </c>
       <c r="M94" t="n">
-        <v>32613.87</v>
+        <v>5322.295</v>
       </c>
     </row>
     <row r="95">
@@ -5075,84 +5075,84 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H95" t="n">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="I95" t="n">
-        <v>275.33</v>
+        <v>128.612815727915</v>
       </c>
       <c r="J95" t="n">
-        <v>248.34</v>
+        <v>111.8468475018524</v>
       </c>
       <c r="K95" t="n">
-        <v>98.52500000000001</v>
+        <v>43.99</v>
       </c>
       <c r="L95" t="n">
-        <v>139.33</v>
+        <v>38.97</v>
       </c>
       <c r="M95" t="n">
-        <v>25360.785</v>
+        <v>6032.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>32</v>
       </c>
       <c r="G96" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H96" t="n">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="I96" t="n">
-        <v>258.89</v>
+        <v>34.1088841392428</v>
       </c>
       <c r="J96" t="n">
-        <v>228.38</v>
+        <v>33.51536857132167</v>
       </c>
       <c r="K96" t="n">
-        <v>108.86</v>
+        <v>13.43</v>
       </c>
       <c r="L96" t="n">
-        <v>173.57</v>
+        <v>33.78</v>
       </c>
       <c r="M96" t="n">
-        <v>29697.27</v>
+        <v>1437.7</v>
       </c>
     </row>
     <row r="97">
@@ -5173,35 +5173,35 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G97" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H97" t="n">
-        <v>88</v>
+        <v>39.5</v>
       </c>
       <c r="I97" t="n">
-        <v>88.53</v>
+        <v>38.15709191852535</v>
       </c>
       <c r="J97" t="n">
-        <v>85.51000000000001</v>
+        <v>37.901222596514</v>
       </c>
       <c r="K97" t="n">
-        <v>35.89</v>
+        <v>12.28</v>
       </c>
       <c r="L97" t="n">
-        <v>229.11</v>
+        <v>26.68</v>
       </c>
       <c r="M97" t="n">
-        <v>11131.48</v>
+        <v>1398.39</v>
       </c>
     </row>
     <row r="98">
@@ -5222,35 +5222,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H98" t="n">
-        <v>88.5</v>
+        <v>32</v>
       </c>
       <c r="I98" t="n">
-        <v>89.03999999999999</v>
+        <v>32.40894577058911</v>
       </c>
       <c r="J98" t="n">
-        <v>85.015</v>
+        <v>27.87227245011561</v>
       </c>
       <c r="K98" t="n">
-        <v>35.72499999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L98" t="n">
-        <v>175.735</v>
+        <v>16.26</v>
       </c>
       <c r="M98" t="n">
-        <v>10875.925</v>
+        <v>872.84</v>
       </c>
     </row>
     <row r="99">
@@ -5271,35 +5271,35 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G99" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H99" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I99" t="n">
-        <v>80.81999999999999</v>
+        <v>45.11432843779984</v>
       </c>
       <c r="J99" t="n">
-        <v>74.44999999999999</v>
+        <v>45.01365726001295</v>
       </c>
       <c r="K99" t="n">
-        <v>33.83</v>
+        <v>16.3</v>
       </c>
       <c r="L99" t="n">
-        <v>230.14</v>
+        <v>50.88</v>
       </c>
       <c r="M99" t="n">
-        <v>10853.4</v>
+        <v>2593.78</v>
       </c>
     </row>
     <row r="100">
@@ -5320,35 +5320,35 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G100" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H100" t="n">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I100" t="n">
-        <v>113.35</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="J100" t="n">
-        <v>94.23999999999999</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="K100" t="n">
-        <v>52.69</v>
+        <v>12.47</v>
       </c>
       <c r="L100" t="n">
-        <v>155.75</v>
+        <v>27.19</v>
       </c>
       <c r="M100" t="n">
-        <v>14195.33</v>
+        <v>1398.13</v>
       </c>
     </row>
     <row r="101">
@@ -5369,35 +5369,35 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
+        <v>32</v>
+      </c>
+      <c r="G101" t="n">
         <v>30</v>
       </c>
-      <c r="G101" t="n">
-        <v>18</v>
-      </c>
       <c r="H101" t="n">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I101" t="n">
-        <v>103.29</v>
+        <v>36.79391028851607</v>
       </c>
       <c r="J101" t="n">
-        <v>102.95</v>
+        <v>34.1949615403443</v>
       </c>
       <c r="K101" t="n">
-        <v>46.99</v>
+        <v>12.83</v>
       </c>
       <c r="L101" t="n">
-        <v>225.81</v>
+        <v>25.02</v>
       </c>
       <c r="M101" t="n">
-        <v>15597.4</v>
+        <v>1276.1</v>
       </c>
     </row>
     <row r="102">
@@ -5418,46 +5418,46 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
+        <v>32</v>
+      </c>
+      <c r="G102" t="n">
         <v>30</v>
       </c>
-      <c r="G102" t="n">
-        <v>18</v>
-      </c>
       <c r="H102" t="n">
-        <v>97</v>
+        <v>43.5</v>
       </c>
       <c r="I102" t="n">
-        <v>97.92</v>
+        <v>42.18099462298987</v>
       </c>
       <c r="J102" t="n">
-        <v>82.16</v>
+        <v>42.18099462298987</v>
       </c>
       <c r="K102" t="n">
-        <v>42.33</v>
+        <v>13.62</v>
       </c>
       <c r="L102" t="n">
-        <v>177.19</v>
+        <v>26.5</v>
       </c>
       <c r="M102" t="n">
-        <v>13312.44</v>
+        <v>1349.23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5467,35 +5467,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H103" t="n">
-        <v>105</v>
+        <v>96.5</v>
       </c>
       <c r="I103" t="n">
-        <v>105.13</v>
+        <v>93.53189076520235</v>
       </c>
       <c r="J103" t="n">
-        <v>95.07499999999999</v>
+        <v>79.84418101656451</v>
       </c>
       <c r="K103" t="n">
-        <v>45.525</v>
+        <v>31.525</v>
       </c>
       <c r="L103" t="n">
-        <v>190.115</v>
+        <v>46.325</v>
       </c>
       <c r="M103" t="n">
-        <v>14195.085</v>
+        <v>4411.27</v>
       </c>
     </row>
     <row r="104">
@@ -5516,35 +5516,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H104" t="n">
-        <v>206.5</v>
+        <v>113</v>
       </c>
       <c r="I104" t="n">
-        <v>206.915</v>
+        <v>107.9722123974601</v>
       </c>
       <c r="J104" t="n">
-        <v>189.985</v>
+        <v>94.73032515168934</v>
       </c>
       <c r="K104" t="n">
-        <v>83.205</v>
+        <v>38.79</v>
       </c>
       <c r="L104" t="n">
-        <v>123.22</v>
+        <v>28.87</v>
       </c>
       <c r="M104" t="n">
-        <v>19710.89</v>
+        <v>3553.39</v>
       </c>
     </row>
     <row r="105">
@@ -5565,35 +5565,35 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H105" t="n">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="I105" t="n">
-        <v>223.68</v>
+        <v>79.54819881530756</v>
       </c>
       <c r="J105" t="n">
-        <v>188.14</v>
+        <v>79.49945389433788</v>
       </c>
       <c r="K105" t="n">
-        <v>90.34999999999999</v>
+        <v>30.62</v>
       </c>
       <c r="L105" t="n">
-        <v>125.41</v>
+        <v>69.25</v>
       </c>
       <c r="M105" t="n">
-        <v>21477.3</v>
+        <v>5177.13</v>
       </c>
     </row>
     <row r="106">
@@ -5614,35 +5614,35 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G106" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H106" t="n">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="I106" t="n">
-        <v>193.17</v>
+        <v>81.12670331244388</v>
       </c>
       <c r="J106" t="n">
-        <v>207.25</v>
+        <v>68.19635100725603</v>
       </c>
       <c r="K106" t="n">
-        <v>87.11</v>
+        <v>29.4</v>
       </c>
       <c r="L106" t="n">
-        <v>118.3</v>
+        <v>44.08</v>
       </c>
       <c r="M106" t="n">
-        <v>19756.5</v>
+        <v>4181.98</v>
       </c>
     </row>
     <row r="107">
@@ -5663,35 +5663,35 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H107" t="n">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="I107" t="n">
-        <v>194.84</v>
+        <v>81.52936758603394</v>
       </c>
       <c r="J107" t="n">
-        <v>179.75</v>
+        <v>79.24729555557188</v>
       </c>
       <c r="K107" t="n">
-        <v>81.68000000000001</v>
+        <v>27.535</v>
       </c>
       <c r="L107" t="n">
-        <v>157.37</v>
+        <v>40.795</v>
       </c>
       <c r="M107" t="n">
-        <v>20143.85</v>
+        <v>3776.805</v>
       </c>
     </row>
     <row r="108">
@@ -5712,35 +5712,35 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" t="n">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="I108" t="n">
-        <v>173.21</v>
+        <v>102.0816029892906</v>
       </c>
       <c r="J108" t="n">
-        <v>153.085</v>
+        <v>81.96334539433394</v>
       </c>
       <c r="K108" t="n">
-        <v>66.98</v>
+        <v>33.59</v>
       </c>
       <c r="L108" t="n">
-        <v>113.57</v>
+        <v>40.3</v>
       </c>
       <c r="M108" t="n">
-        <v>16331.72</v>
+        <v>4492.06</v>
       </c>
     </row>
     <row r="109">
@@ -5761,35 +5761,35 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H109" t="n">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="I109" t="n">
-        <v>199.53</v>
+        <v>85.00316731552465</v>
       </c>
       <c r="J109" t="n">
-        <v>184.44</v>
+        <v>67.37174832760881</v>
       </c>
       <c r="K109" t="n">
-        <v>77.79000000000001</v>
+        <v>29.92</v>
       </c>
       <c r="L109" t="n">
-        <v>115.33</v>
+        <v>40.1</v>
       </c>
       <c r="M109" t="n">
-        <v>18281.51</v>
+        <v>4140.32</v>
       </c>
     </row>
     <row r="110">
@@ -5810,41 +5810,41 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G110" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H110" t="n">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="I110" t="n">
-        <v>193.16</v>
+        <v>92.71265036536886</v>
       </c>
       <c r="J110" t="n">
-        <v>161.31</v>
+        <v>77.32101493747103</v>
       </c>
       <c r="K110" t="n">
-        <v>78.45999999999999</v>
+        <v>31.72</v>
       </c>
       <c r="L110" t="n">
-        <v>139.79</v>
+        <v>45.28</v>
       </c>
       <c r="M110" t="n">
-        <v>19424.22</v>
+        <v>4157.56</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5859,35 +5859,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H111" t="n">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="I111" t="n">
-        <v>188.47</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="J111" t="n">
-        <v>174.05</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="K111" t="n">
-        <v>74.48999999999999</v>
+        <v>28.95</v>
       </c>
       <c r="L111" t="n">
-        <v>111.95</v>
+        <v>47.05</v>
       </c>
       <c r="M111" t="n">
-        <v>17677.48</v>
+        <v>3975.87</v>
       </c>
     </row>
     <row r="112">
@@ -5908,35 +5908,35 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G112" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H112" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I112" t="n">
-        <v>144.54</v>
+        <v>72.13251683196465</v>
       </c>
       <c r="J112" t="n">
-        <v>135.82</v>
+        <v>55.56145069844642</v>
       </c>
       <c r="K112" t="n">
-        <v>42.67</v>
+        <v>22.81</v>
       </c>
       <c r="L112" t="n">
-        <v>50.41</v>
+        <v>34.59</v>
       </c>
       <c r="M112" t="n">
-        <v>9416.059999999999</v>
+        <v>2189.33</v>
       </c>
     </row>
     <row r="113">
@@ -5957,35 +5957,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
         <v>30</v>
       </c>
       <c r="G113" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H113" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="I113" t="n">
-        <v>144.2</v>
+        <v>71.60213370846034</v>
       </c>
       <c r="J113" t="n">
-        <v>133.14</v>
+        <v>68.97138176414914</v>
       </c>
       <c r="K113" t="n">
-        <v>42.18</v>
+        <v>25.18</v>
       </c>
       <c r="L113" t="n">
-        <v>52.54</v>
+        <v>29.14</v>
       </c>
       <c r="M113" t="n">
-        <v>7902.08</v>
+        <v>2541.2</v>
       </c>
     </row>
     <row r="114">
@@ -6006,35 +6006,35 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G114" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H114" t="n">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I114" t="n">
-        <v>163.32</v>
+        <v>92.72406248262513</v>
       </c>
       <c r="J114" t="n">
-        <v>144.2</v>
+        <v>77.9030693144562</v>
       </c>
       <c r="K114" t="n">
-        <v>47.02</v>
+        <v>30.01</v>
       </c>
       <c r="L114" t="n">
-        <v>56.96</v>
+        <v>32.6</v>
       </c>
       <c r="M114" t="n">
-        <v>8113.97</v>
+        <v>3923.92</v>
       </c>
     </row>
     <row r="115">
@@ -6055,35 +6055,35 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>30</v>
       </c>
       <c r="G115" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H115" t="n">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="I115" t="n">
-        <v>180.09</v>
+        <v>82.62724291752032</v>
       </c>
       <c r="J115" t="n">
-        <v>165.33</v>
+        <v>80.94017739825928</v>
       </c>
       <c r="K115" t="n">
-        <v>52.54</v>
+        <v>26.94</v>
       </c>
       <c r="L115" t="n">
-        <v>38.83</v>
+        <v>23.7</v>
       </c>
       <c r="M115" t="n">
-        <v>7686.75</v>
+        <v>2594.65</v>
       </c>
     </row>
     <row r="116">
@@ -6104,35 +6104,35 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
+        <v>32</v>
+      </c>
+      <c r="G116" t="n">
         <v>30</v>
       </c>
-      <c r="G116" t="n">
-        <v>20</v>
-      </c>
       <c r="H116" t="n">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="I116" t="n">
-        <v>171.37</v>
+        <v>63.01043925096315</v>
       </c>
       <c r="J116" t="n">
-        <v>150.58</v>
+        <v>60.31679969977628</v>
       </c>
       <c r="K116" t="n">
-        <v>48.31</v>
+        <v>20.49</v>
       </c>
       <c r="L116" t="n">
-        <v>31.06</v>
+        <v>29.26</v>
       </c>
       <c r="M116" t="n">
-        <v>6965.42</v>
+        <v>1838.77</v>
       </c>
     </row>
     <row r="117">
@@ -6153,35 +6153,35 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H117" t="n">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I117" t="n">
-        <v>138.16</v>
+        <v>90.40870747446812</v>
       </c>
       <c r="J117" t="n">
-        <v>120.73</v>
+        <v>90.40870747446812</v>
       </c>
       <c r="K117" t="n">
-        <v>39.82</v>
+        <v>29.77</v>
       </c>
       <c r="L117" t="n">
-        <v>47.29</v>
+        <v>29.74</v>
       </c>
       <c r="M117" t="n">
-        <v>8078.89</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="118">
@@ -6202,35 +6202,35 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H118" t="n">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="I118" t="n">
-        <v>184.44</v>
+        <v>58.85598520954735</v>
       </c>
       <c r="J118" t="n">
-        <v>183.77</v>
+        <v>56.66457548769969</v>
       </c>
       <c r="K118" t="n">
-        <v>55.18</v>
+        <v>21.44</v>
       </c>
       <c r="L118" t="n">
-        <v>33.38</v>
+        <v>46.63</v>
       </c>
       <c r="M118" t="n">
-        <v>9755.459999999999</v>
+        <v>2999.25</v>
       </c>
     </row>
     <row r="119">
@@ -6251,35 +6251,35 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H119" t="n">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I119" t="n">
-        <v>112.68</v>
+        <v>66.79337937128457</v>
       </c>
       <c r="J119" t="n">
-        <v>105.64</v>
+        <v>65.48719276425226</v>
       </c>
       <c r="K119" t="n">
-        <v>35.66</v>
+        <v>21.73</v>
       </c>
       <c r="L119" t="n">
-        <v>70.59999999999999</v>
+        <v>14.18</v>
       </c>
       <c r="M119" t="n">
-        <v>7710.49</v>
+        <v>1776.36</v>
       </c>
     </row>
     <row r="120">
@@ -6300,46 +6300,46 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H120" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="I120" t="n">
-        <v>116.36</v>
+        <v>70.82348730591765</v>
       </c>
       <c r="J120" t="n">
-        <v>113.01</v>
+        <v>69.05803514576129</v>
       </c>
       <c r="K120" t="n">
-        <v>32.44</v>
+        <v>24.53</v>
       </c>
       <c r="L120" t="n">
-        <v>16.97</v>
+        <v>33.61</v>
       </c>
       <c r="M120" t="n">
-        <v>4227.16</v>
+        <v>3035.4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6349,35 +6349,35 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H121" t="n">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="I121" t="n">
-        <v>145.54</v>
+        <v>61.87883273129375</v>
       </c>
       <c r="J121" t="n">
-        <v>131.12</v>
+        <v>59.68401202963443</v>
       </c>
       <c r="K121" t="n">
-        <v>44.03</v>
+        <v>19.51</v>
       </c>
       <c r="L121" t="n">
-        <v>69.22</v>
+        <v>25.94</v>
       </c>
       <c r="M121" t="n">
-        <v>8797.98</v>
+        <v>1764.17</v>
       </c>
     </row>
     <row r="122">
@@ -6398,35 +6398,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
+        <v>32</v>
+      </c>
+      <c r="G122" t="n">
         <v>30</v>
       </c>
-      <c r="G122" t="n">
-        <v>20</v>
-      </c>
       <c r="H122" t="n">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="I122" t="n">
-        <v>154.26</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="J122" t="n">
-        <v>141.52</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="K122" t="n">
-        <v>59.89</v>
+        <v>18.59</v>
       </c>
       <c r="L122" t="n">
-        <v>128.74</v>
+        <v>21.27</v>
       </c>
       <c r="M122" t="n">
-        <v>13594.32</v>
+        <v>1635.4</v>
       </c>
     </row>
     <row r="123">
@@ -6447,35 +6447,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H123" t="n">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="I123" t="n">
-        <v>148.23</v>
+        <v>53.07642867423606</v>
       </c>
       <c r="J123" t="n">
-        <v>139.18</v>
+        <v>52.95192029973887</v>
       </c>
       <c r="K123" t="n">
-        <v>57.92</v>
+        <v>16.96</v>
       </c>
       <c r="L123" t="n">
-        <v>104.72</v>
+        <v>25.19</v>
       </c>
       <c r="M123" t="n">
-        <v>12618.77</v>
+        <v>1617.5</v>
       </c>
     </row>
     <row r="124">
@@ -6496,35 +6496,35 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G124" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H124" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="I124" t="n">
-        <v>129.945</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="J124" t="n">
-        <v>119.39</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="K124" t="n">
-        <v>48.575</v>
+        <v>14.84</v>
       </c>
       <c r="L124" t="n">
-        <v>109.44</v>
+        <v>40.05</v>
       </c>
       <c r="M124" t="n">
-        <v>10719.26</v>
+        <v>1753.86</v>
       </c>
     </row>
     <row r="125">
@@ -6545,35 +6545,35 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G125" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H125" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I125" t="n">
-        <v>116.03</v>
+        <v>57.7823850395153</v>
       </c>
       <c r="J125" t="n">
-        <v>97.25</v>
+        <v>57.7823850395153</v>
       </c>
       <c r="K125" t="n">
-        <v>42.11</v>
+        <v>17.1</v>
       </c>
       <c r="L125" t="n">
-        <v>90.12</v>
+        <v>19.14</v>
       </c>
       <c r="M125" t="n">
-        <v>8658.24</v>
+        <v>1304.07</v>
       </c>
     </row>
     <row r="126">
@@ -6594,35 +6594,35 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
+        <v>32</v>
+      </c>
+      <c r="G126" t="n">
         <v>30</v>
       </c>
-      <c r="G126" t="n">
-        <v>20</v>
-      </c>
       <c r="H126" t="n">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I126" t="n">
-        <v>136.49</v>
+        <v>36.76858640617366</v>
       </c>
       <c r="J126" t="n">
-        <v>124.08</v>
+        <v>34.78235881595512</v>
       </c>
       <c r="K126" t="n">
-        <v>48.49</v>
+        <v>12.68</v>
       </c>
       <c r="L126" t="n">
-        <v>108.6</v>
+        <v>20.69</v>
       </c>
       <c r="M126" t="n">
-        <v>10944.18</v>
+        <v>1134.02</v>
       </c>
     </row>
     <row r="127">
@@ -6643,35 +6643,35 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H127" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I127" t="n">
-        <v>95.23999999999999</v>
+        <v>69.06809975461748</v>
       </c>
       <c r="J127" t="n">
-        <v>90.53999999999999</v>
+        <v>69.06809975461748</v>
       </c>
       <c r="K127" t="n">
-        <v>34.91</v>
+        <v>26.48</v>
       </c>
       <c r="L127" t="n">
-        <v>107.47</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="M127" t="n">
-        <v>7387.58</v>
+        <v>4857.97</v>
       </c>
     </row>
     <row r="128">
@@ -6692,35 +6692,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G128" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H128" t="n">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="I128" t="n">
-        <v>170.7</v>
+        <v>60.89424729233652</v>
       </c>
       <c r="J128" t="n">
-        <v>207.25</v>
+        <v>55.91152654001202</v>
       </c>
       <c r="K128" t="n">
-        <v>84.64</v>
+        <v>18.84</v>
       </c>
       <c r="L128" t="n">
-        <v>111.9</v>
+        <v>20.08</v>
       </c>
       <c r="M128" t="n">
-        <v>18427.14</v>
+        <v>1644.6</v>
       </c>
     </row>
     <row r="129">
@@ -6741,41 +6741,41 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
+        <v>32</v>
+      </c>
+      <c r="G129" t="n">
         <v>30</v>
       </c>
-      <c r="G129" t="n">
-        <v>20</v>
-      </c>
       <c r="H129" t="n">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="I129" t="n">
-        <v>143.86</v>
+        <v>51.34405652741073</v>
       </c>
       <c r="J129" t="n">
-        <v>119.72</v>
+        <v>48.31325990394013</v>
       </c>
       <c r="K129" t="n">
-        <v>55.18</v>
+        <v>15.76</v>
       </c>
       <c r="L129" t="n">
-        <v>102.68</v>
+        <v>18.73</v>
       </c>
       <c r="M129" t="n">
-        <v>12746.04</v>
+        <v>1374.58</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6790,35 +6790,35 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G130" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H130" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I130" t="n">
-        <v>124.08</v>
+        <v>33.01268612137392</v>
       </c>
       <c r="J130" t="n">
-        <v>108.32</v>
+        <v>26.99326575465804</v>
       </c>
       <c r="K130" t="n">
-        <v>45.05</v>
+        <v>11.31</v>
       </c>
       <c r="L130" t="n">
-        <v>109.57</v>
+        <v>31.53</v>
       </c>
       <c r="M130" t="n">
-        <v>9868.67</v>
+        <v>1529.84</v>
       </c>
     </row>
     <row r="131">
@@ -6839,35 +6839,35 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H131" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I131" t="n">
-        <v>75.45999999999999</v>
+        <v>64.08209154372676</v>
       </c>
       <c r="J131" t="n">
-        <v>61.36999999999999</v>
+        <v>64.08209154372676</v>
       </c>
       <c r="K131" t="n">
-        <v>29.76</v>
+        <v>23.21</v>
       </c>
       <c r="L131" t="n">
-        <v>130.01</v>
+        <v>51.98</v>
       </c>
       <c r="M131" t="n">
-        <v>8824.85</v>
+        <v>3412.2</v>
       </c>
     </row>
     <row r="132">
@@ -6888,35 +6888,35 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
+        <v>30</v>
+      </c>
+      <c r="G132" t="n">
         <v>28</v>
       </c>
-      <c r="G132" t="n">
-        <v>18</v>
-      </c>
       <c r="H132" t="n">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="I132" t="n">
-        <v>161.97</v>
+        <v>36.87715457384766</v>
       </c>
       <c r="J132" t="n">
-        <v>135.48</v>
+        <v>32.47671713724356</v>
       </c>
       <c r="K132" t="n">
-        <v>63.22</v>
+        <v>11.18</v>
       </c>
       <c r="L132" t="n">
-        <v>116.59</v>
+        <v>13.63</v>
       </c>
       <c r="M132" t="n">
-        <v>16776.86</v>
+        <v>955.5</v>
       </c>
     </row>
     <row r="133">
@@ -6937,35 +6937,35 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
+        <v>30</v>
+      </c>
+      <c r="G133" t="n">
         <v>28</v>
       </c>
-      <c r="G133" t="n">
-        <v>18</v>
-      </c>
       <c r="H133" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I133" t="n">
-        <v>87.86</v>
+        <v>46.36895741068632</v>
       </c>
       <c r="J133" t="n">
-        <v>76.13</v>
+        <v>45.43427719026023</v>
       </c>
       <c r="K133" t="n">
-        <v>34.1</v>
+        <v>14.82</v>
       </c>
       <c r="L133" t="n">
-        <v>128.32</v>
+        <v>21.055</v>
       </c>
       <c r="M133" t="n">
-        <v>10163.93</v>
+        <v>1376.085</v>
       </c>
     </row>
     <row r="134">
@@ -6986,35 +6986,35 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
         <v>30</v>
       </c>
       <c r="G134" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H134" t="n">
-        <v>123.5</v>
+        <v>52</v>
       </c>
       <c r="I134" t="n">
-        <v>123.745</v>
+        <v>52.23470749059706</v>
       </c>
       <c r="J134" t="n">
-        <v>110.5</v>
+        <v>52.23470749059706</v>
       </c>
       <c r="K134" t="n">
-        <v>50.335</v>
+        <v>17.03</v>
       </c>
       <c r="L134" t="n">
-        <v>159.155</v>
+        <v>31.02</v>
       </c>
       <c r="M134" t="n">
-        <v>14548.575</v>
+        <v>1735.17</v>
       </c>
     </row>
     <row r="135">
@@ -7035,35 +7035,35 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
+        <v>32</v>
+      </c>
+      <c r="G135" t="n">
         <v>30</v>
       </c>
-      <c r="G135" t="n">
-        <v>20</v>
-      </c>
       <c r="H135" t="n">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="I135" t="n">
-        <v>143.87</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="J135" t="n">
-        <v>135.15</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="K135" t="n">
-        <v>63.49</v>
+        <v>17.89</v>
       </c>
       <c r="L135" t="n">
-        <v>209.98</v>
+        <v>33.3</v>
       </c>
       <c r="M135" t="n">
-        <v>19187.01</v>
+        <v>1751.87</v>
       </c>
     </row>
     <row r="136">
@@ -7084,35 +7084,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G136" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H136" t="n">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="I136" t="n">
-        <v>133.47</v>
+        <v>37.620481659463</v>
       </c>
       <c r="J136" t="n">
-        <v>114.35</v>
+        <v>34.71643324325585</v>
       </c>
       <c r="K136" t="n">
-        <v>55.72</v>
+        <v>12.69</v>
       </c>
       <c r="L136" t="n">
-        <v>154.91</v>
+        <v>31.63</v>
       </c>
       <c r="M136" t="n">
-        <v>15440.16</v>
+        <v>1607.09</v>
       </c>
     </row>
     <row r="137">
@@ -7133,46 +7133,46 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
+        <v>32</v>
+      </c>
+      <c r="G137" t="n">
         <v>30</v>
       </c>
-      <c r="G137" t="n">
-        <v>20</v>
-      </c>
       <c r="H137" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I137" t="n">
-        <v>81.83</v>
+        <v>30.2652756327663</v>
       </c>
       <c r="J137" t="n">
-        <v>75.45999999999999</v>
+        <v>26.69714947367789</v>
       </c>
       <c r="K137" t="n">
-        <v>32.64</v>
+        <v>11.32</v>
       </c>
       <c r="L137" t="n">
-        <v>143.62</v>
+        <v>32.63</v>
       </c>
       <c r="M137" t="n">
-        <v>9316.049999999999</v>
+        <v>1106.22</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7182,35 +7182,35 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G138" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H138" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I138" t="n">
-        <v>85.18000000000001</v>
+        <v>89.44072787074697</v>
       </c>
       <c r="J138" t="n">
-        <v>79.14</v>
+        <v>75.73319788168175</v>
       </c>
       <c r="K138" t="n">
-        <v>37.09</v>
+        <v>29.56</v>
       </c>
       <c r="L138" t="n">
-        <v>197.67</v>
+        <v>38.55</v>
       </c>
       <c r="M138" t="n">
-        <v>10907.08</v>
+        <v>4279.67</v>
       </c>
     </row>
     <row r="139">
@@ -7231,35 +7231,35 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G139" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H139" t="n">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="I139" t="n">
-        <v>184.11</v>
+        <v>71.95572669196675</v>
       </c>
       <c r="J139" t="n">
-        <v>155.27</v>
+        <v>59.49603948931558</v>
       </c>
       <c r="K139" t="n">
-        <v>82.40000000000001</v>
+        <v>24.87</v>
       </c>
       <c r="L139" t="n">
-        <v>194.64</v>
+        <v>38.94</v>
       </c>
       <c r="M139" t="n">
-        <v>24688.61</v>
+        <v>3687.82</v>
       </c>
     </row>
     <row r="140">
@@ -7280,35 +7280,35 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
+        <v>32</v>
+      </c>
+      <c r="G140" t="n">
         <v>30</v>
       </c>
-      <c r="G140" t="n">
-        <v>24</v>
-      </c>
       <c r="H140" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I140" t="n">
-        <v>153.93</v>
+        <v>130.7115225493653</v>
       </c>
       <c r="J140" t="n">
-        <v>135.15</v>
+        <v>120.4072559039201</v>
       </c>
       <c r="K140" t="n">
-        <v>63.26</v>
+        <v>46.91</v>
       </c>
       <c r="L140" t="n">
-        <v>148.74</v>
+        <v>26.99</v>
       </c>
       <c r="M140" t="n">
-        <v>17363.57</v>
+        <v>4245.61</v>
       </c>
     </row>
     <row r="141">
@@ -7329,35 +7329,35 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G141" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H141" t="n">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="I141" t="n">
-        <v>250.18</v>
+        <v>64.95735375722688</v>
       </c>
       <c r="J141" t="n">
-        <v>234.76</v>
+        <v>58.47035590841362</v>
       </c>
       <c r="K141" t="n">
-        <v>81.47</v>
+        <v>25.72</v>
       </c>
       <c r="L141" t="n">
-        <v>92.98999999999999</v>
+        <v>64.94</v>
       </c>
       <c r="M141" t="n">
-        <v>17480.66</v>
+        <v>4534.51</v>
       </c>
     </row>
     <row r="142">
@@ -7378,35 +7378,35 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G142" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H142" t="n">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I142" t="n">
-        <v>159.63</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="J142" t="n">
-        <v>133.14</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="K142" t="n">
-        <v>70.09</v>
+        <v>42.08</v>
       </c>
       <c r="L142" t="n">
-        <v>153.54</v>
+        <v>47.33</v>
       </c>
       <c r="M142" t="n">
-        <v>17231.25</v>
+        <v>6373.27</v>
       </c>
     </row>
     <row r="143">
@@ -7427,35 +7427,35 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G143" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H143" t="n">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="I143" t="n">
-        <v>250.84</v>
+        <v>87.46482733403951</v>
       </c>
       <c r="J143" t="n">
-        <v>214.96</v>
+        <v>72.92630677718111</v>
       </c>
       <c r="K143" t="n">
-        <v>111.18</v>
+        <v>30</v>
       </c>
       <c r="L143" t="n">
-        <v>151.64</v>
+        <v>41.43</v>
       </c>
       <c r="M143" t="n">
-        <v>25300.9</v>
+        <v>4296.01</v>
       </c>
     </row>
     <row r="144">
@@ -7476,35 +7476,35 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G144" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H144" t="n">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="I144" t="n">
-        <v>206.58</v>
+        <v>13.02515750336005</v>
       </c>
       <c r="J144" t="n">
-        <v>170.7</v>
+        <v>14.6407754314166</v>
       </c>
       <c r="K144" t="n">
-        <v>87.48</v>
+        <v>6.44</v>
       </c>
       <c r="L144" t="n">
-        <v>166.42</v>
+        <v>88.44</v>
       </c>
       <c r="M144" t="n">
-        <v>23805.73</v>
+        <v>1481.93</v>
       </c>
     </row>
     <row r="145">
@@ -7529,31 +7529,31 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>32</v>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H145" t="n">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I145" t="n">
-        <v>133.14</v>
+        <v>49.03243047302874</v>
       </c>
       <c r="J145" t="n">
-        <v>129.11</v>
+        <v>46.3442501813324</v>
       </c>
       <c r="K145" t="n">
-        <v>55.74</v>
+        <v>19.85</v>
       </c>
       <c r="L145" t="n">
-        <v>176.76</v>
+        <v>43.57</v>
       </c>
       <c r="M145" t="n">
-        <v>15823.69</v>
+        <v>2638.62</v>
       </c>
     </row>
     <row r="146">
@@ -7578,31 +7578,31 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G146" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H146" t="n">
-        <v>193.5</v>
+        <v>94</v>
       </c>
       <c r="I146" t="n">
-        <v>193.495</v>
+        <v>88.55984297197256</v>
       </c>
       <c r="J146" t="n">
-        <v>170.36</v>
+        <v>81.45850855120113</v>
       </c>
       <c r="K146" t="n">
-        <v>83.505</v>
+        <v>30.755</v>
       </c>
       <c r="L146" t="n">
-        <v>150.165</v>
+        <v>47.715</v>
       </c>
       <c r="M146" t="n">
-        <v>21772.16</v>
+        <v>4578.285</v>
       </c>
     </row>
   </sheetData>

--- a/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -522,30 +512,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>27.31020762633142</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>26.46351137405487</v>
       </c>
       <c r="I2" t="n">
-        <v>27.31020762633142</v>
+        <v>7.736666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>26.46351137405487</v>
+        <v>14.59666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>7.736666666666667</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14.59666666666667</v>
-      </c>
-      <c r="M2" t="n">
         <v>675.9400000000001</v>
       </c>
     </row>
@@ -571,30 +555,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>24.66990551005223</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>23.91311652051354</v>
       </c>
       <c r="I3" t="n">
-        <v>24.66990551005223</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>23.91311652051354</v>
+        <v>48.67</v>
       </c>
       <c r="K3" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="M3" t="n">
         <v>1527.07</v>
       </c>
     </row>
@@ -620,30 +598,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>29.84446436871178</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>28.37739611343147</v>
       </c>
       <c r="I4" t="n">
-        <v>29.84446436871178</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>28.37739611343147</v>
+        <v>25.57</v>
       </c>
       <c r="K4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="M4" t="n">
         <v>1022.91</v>
       </c>
     </row>
@@ -669,30 +641,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>27.98228172245824</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>27.98228172245824</v>
       </c>
       <c r="I5" t="n">
-        <v>27.98228172245824</v>
+        <v>10.69</v>
       </c>
       <c r="J5" t="n">
-        <v>27.98228172245824</v>
+        <v>45.06</v>
       </c>
       <c r="K5" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="L5" t="n">
-        <v>45.06</v>
-      </c>
-      <c r="M5" t="n">
         <v>1560.3</v>
       </c>
     </row>
@@ -718,30 +684,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>27.07958939152019</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>26.31266961338196</v>
       </c>
       <c r="I6" t="n">
-        <v>27.07958939152019</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.31266961338196</v>
+        <v>28.9</v>
       </c>
       <c r="K6" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M6" t="n">
         <v>900.88</v>
       </c>
     </row>
@@ -767,30 +727,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>27.11636580411095</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>25.4734130578746</v>
       </c>
       <c r="I7" t="n">
-        <v>27.11636580411095</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>25.4734130578746</v>
+        <v>27.28</v>
       </c>
       <c r="K7" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="M7" t="n">
         <v>998.4299999999999</v>
       </c>
     </row>
@@ -816,30 +770,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>23</v>
+        <v>29.89804148791742</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>25.27204047368249</v>
       </c>
       <c r="I8" t="n">
-        <v>29.89804148791742</v>
+        <v>9.57</v>
       </c>
       <c r="J8" t="n">
-        <v>25.27204047368249</v>
+        <v>32.525</v>
       </c>
       <c r="K8" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="L8" t="n">
-        <v>32.525</v>
-      </c>
-      <c r="M8" t="n">
         <v>1292.09</v>
       </c>
     </row>
@@ -865,30 +813,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>61.28108273875971</v>
       </c>
       <c r="H9" t="n">
-        <v>66</v>
+        <v>56.484986570908</v>
       </c>
       <c r="I9" t="n">
-        <v>61.28108273875971</v>
+        <v>23.94</v>
       </c>
       <c r="J9" t="n">
-        <v>56.484986570908</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="L9" t="n">
-        <v>88.04000000000001</v>
-      </c>
-      <c r="M9" t="n">
         <v>4554.62</v>
       </c>
     </row>
@@ -914,30 +856,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>56.55883428515158</v>
       </c>
       <c r="H10" t="n">
-        <v>59</v>
+        <v>47.83075787003979</v>
       </c>
       <c r="I10" t="n">
-        <v>56.55883428515158</v>
+        <v>20.31</v>
       </c>
       <c r="J10" t="n">
-        <v>47.83075787003979</v>
+        <v>50.65</v>
       </c>
       <c r="K10" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="L10" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="M10" t="n">
         <v>3190.26</v>
       </c>
     </row>
@@ -963,30 +899,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>79.73374110489735</v>
       </c>
       <c r="H11" t="n">
-        <v>83</v>
+        <v>65.47929746528359</v>
       </c>
       <c r="I11" t="n">
-        <v>79.73374110489735</v>
+        <v>27.95</v>
       </c>
       <c r="J11" t="n">
-        <v>65.47929746528359</v>
+        <v>63.85</v>
       </c>
       <c r="K11" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>63.85</v>
-      </c>
-      <c r="M11" t="n">
         <v>4441.71</v>
       </c>
     </row>
@@ -1012,30 +942,24 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>55.89726241208218</v>
       </c>
       <c r="H12" t="n">
-        <v>58</v>
+        <v>54.82421742710823</v>
       </c>
       <c r="I12" t="n">
-        <v>55.89726241208218</v>
+        <v>20.2</v>
       </c>
       <c r="J12" t="n">
-        <v>54.82421742710823</v>
+        <v>43.22</v>
       </c>
       <c r="K12" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="M12" t="n">
         <v>2962.44</v>
       </c>
     </row>
@@ -1061,30 +985,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>86.04888669652568</v>
       </c>
       <c r="H13" t="n">
-        <v>94</v>
+        <v>85.9817676332346</v>
       </c>
       <c r="I13" t="n">
-        <v>86.04888669652568</v>
+        <v>33.76</v>
       </c>
       <c r="J13" t="n">
-        <v>85.9817676332346</v>
+        <v>68.17</v>
       </c>
       <c r="K13" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="L13" t="n">
-        <v>68.17</v>
-      </c>
-      <c r="M13" t="n">
         <v>6069.61</v>
       </c>
     </row>
@@ -1110,30 +1028,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>66.49893677870003</v>
       </c>
       <c r="H14" t="n">
-        <v>66</v>
+        <v>66.49893677870003</v>
       </c>
       <c r="I14" t="n">
-        <v>66.49893677870003</v>
+        <v>22.55</v>
       </c>
       <c r="J14" t="n">
-        <v>66.49893677870003</v>
+        <v>36.83</v>
       </c>
       <c r="K14" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="L14" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="M14" t="n">
         <v>2333.51</v>
       </c>
     </row>
@@ -1159,30 +1071,24 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>78.5</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>74.56367529512879</v>
       </c>
       <c r="H15" t="n">
-        <v>78.5</v>
+        <v>67.15609577590436</v>
       </c>
       <c r="I15" t="n">
-        <v>74.56367529512879</v>
+        <v>25.015</v>
       </c>
       <c r="J15" t="n">
-        <v>67.15609577590436</v>
+        <v>50.72</v>
       </c>
       <c r="K15" t="n">
-        <v>25.015</v>
-      </c>
-      <c r="L15" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="M15" t="n">
         <v>3870.135</v>
       </c>
     </row>
@@ -1208,30 +1114,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="H16" t="n">
-        <v>76</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="I16" t="n">
-        <v>74.49122293726249</v>
+        <v>23.41</v>
       </c>
       <c r="J16" t="n">
-        <v>74.49122293726249</v>
+        <v>20.02</v>
       </c>
       <c r="K16" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="L16" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="M16" t="n">
         <v>2279.12</v>
       </c>
     </row>
@@ -1257,30 +1157,24 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>61.72032565738297</v>
       </c>
       <c r="H17" t="n">
-        <v>68</v>
+        <v>54.59631570805864</v>
       </c>
       <c r="I17" t="n">
-        <v>61.72032565738297</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>54.59631570805864</v>
+        <v>52.39</v>
       </c>
       <c r="K17" t="n">
-        <v>22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="M17" t="n">
         <v>3149.63</v>
       </c>
     </row>
@@ -1306,30 +1200,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>39.47438571926202</v>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>33.58541036377354</v>
       </c>
       <c r="I18" t="n">
-        <v>39.47438571926202</v>
+        <v>12.75</v>
       </c>
       <c r="J18" t="n">
-        <v>33.58541036377354</v>
+        <v>26.9</v>
       </c>
       <c r="K18" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="M18" t="n">
         <v>1285.94</v>
       </c>
     </row>
@@ -1355,30 +1243,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>46.60838020806955</v>
       </c>
       <c r="H19" t="n">
-        <v>54</v>
+        <v>45.50548823384586</v>
       </c>
       <c r="I19" t="n">
-        <v>46.60838020806955</v>
+        <v>16.8</v>
       </c>
       <c r="J19" t="n">
-        <v>45.50548823384586</v>
+        <v>42.67</v>
       </c>
       <c r="K19" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>42.67</v>
-      </c>
-      <c r="M19" t="n">
         <v>2527.21</v>
       </c>
     </row>
@@ -1404,30 +1286,24 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>41.45321952802237</v>
       </c>
       <c r="H20" t="n">
-        <v>45</v>
+        <v>38.08416943505104</v>
       </c>
       <c r="I20" t="n">
-        <v>41.45321952802237</v>
+        <v>16.31</v>
       </c>
       <c r="J20" t="n">
-        <v>38.08416943505104</v>
+        <v>76.73</v>
       </c>
       <c r="K20" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="L20" t="n">
-        <v>76.73</v>
-      </c>
-      <c r="M20" t="n">
         <v>3020.08</v>
       </c>
     </row>
@@ -1453,30 +1329,24 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>60.54726081217567</v>
       </c>
       <c r="H21" t="n">
-        <v>65</v>
+        <v>53.71663242988635</v>
       </c>
       <c r="I21" t="n">
-        <v>60.54726081217567</v>
+        <v>22.47</v>
       </c>
       <c r="J21" t="n">
-        <v>53.71663242988635</v>
+        <v>55.65</v>
       </c>
       <c r="K21" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="L21" t="n">
-        <v>55.65</v>
-      </c>
-      <c r="M21" t="n">
         <v>3430.23</v>
       </c>
     </row>
@@ -1502,30 +1372,24 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>43.7078158393041</v>
       </c>
       <c r="H22" t="n">
-        <v>45</v>
+        <v>39.4870267756756</v>
       </c>
       <c r="I22" t="n">
-        <v>43.7078158393041</v>
+        <v>14.61</v>
       </c>
       <c r="J22" t="n">
-        <v>39.4870267756756</v>
+        <v>48.17</v>
       </c>
       <c r="K22" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="L22" t="n">
-        <v>48.17</v>
-      </c>
-      <c r="M22" t="n">
         <v>2048.13</v>
       </c>
     </row>
@@ -1551,30 +1415,24 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>68.50216595433885</v>
       </c>
       <c r="H23" t="n">
-        <v>73</v>
+        <v>59.80302178487835</v>
       </c>
       <c r="I23" t="n">
-        <v>68.50216595433885</v>
+        <v>25.565</v>
       </c>
       <c r="J23" t="n">
-        <v>59.80302178487835</v>
+        <v>61.75</v>
       </c>
       <c r="K23" t="n">
-        <v>25.565</v>
-      </c>
-      <c r="L23" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="M23" t="n">
         <v>4147.379999999999</v>
       </c>
     </row>
@@ -1600,30 +1458,24 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="H24" t="n">
-        <v>43</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="I24" t="n">
-        <v>41.12019646503102</v>
+        <v>12.88</v>
       </c>
       <c r="J24" t="n">
-        <v>41.12019646503102</v>
+        <v>26.48</v>
       </c>
       <c r="K24" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="L24" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="M24" t="n">
         <v>1371.13</v>
       </c>
     </row>
@@ -1649,30 +1501,24 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>38.80450270738866</v>
       </c>
       <c r="H25" t="n">
-        <v>39</v>
+        <v>38.80450270738866</v>
       </c>
       <c r="I25" t="n">
-        <v>38.80450270738866</v>
+        <v>12.6</v>
       </c>
       <c r="J25" t="n">
-        <v>38.80450270738866</v>
+        <v>41.29</v>
       </c>
       <c r="K25" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>41.29</v>
-      </c>
-      <c r="M25" t="n">
         <v>1892.19</v>
       </c>
     </row>
@@ -1698,30 +1544,24 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>27.14364632815601</v>
       </c>
       <c r="H26" t="n">
-        <v>28</v>
+        <v>25.20432971540769</v>
       </c>
       <c r="I26" t="n">
-        <v>27.14364632815601</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>25.20432971540769</v>
+        <v>38.725</v>
       </c>
       <c r="K26" t="n">
-        <v>9.015000000000001</v>
-      </c>
-      <c r="L26" t="n">
-        <v>38.725</v>
-      </c>
-      <c r="M26" t="n">
         <v>1192.36</v>
       </c>
     </row>
@@ -1747,30 +1587,24 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>37.60947004445926</v>
       </c>
       <c r="H27" t="n">
-        <v>37</v>
+        <v>37.60947004445926</v>
       </c>
       <c r="I27" t="n">
-        <v>37.60947004445926</v>
+        <v>11.81</v>
       </c>
       <c r="J27" t="n">
-        <v>37.60947004445926</v>
+        <v>30.5</v>
       </c>
       <c r="K27" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L27" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="M27" t="n">
         <v>1210.37</v>
       </c>
     </row>
@@ -1796,30 +1630,24 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>28</v>
+        <v>26.26971158178306</v>
       </c>
       <c r="H28" t="n">
-        <v>28</v>
+        <v>25.75981246323574</v>
       </c>
       <c r="I28" t="n">
-        <v>26.26971158178306</v>
+        <v>9.09</v>
       </c>
       <c r="J28" t="n">
-        <v>25.75981246323574</v>
+        <v>31.29</v>
       </c>
       <c r="K28" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="L28" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="M28" t="n">
         <v>1095.61</v>
       </c>
     </row>
@@ -1845,30 +1673,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>39.88071382188507</v>
       </c>
       <c r="H29" t="n">
-        <v>41</v>
+        <v>38.94978139638465</v>
       </c>
       <c r="I29" t="n">
-        <v>39.88071382188507</v>
+        <v>12.89</v>
       </c>
       <c r="J29" t="n">
-        <v>38.94978139638465</v>
+        <v>29.12</v>
       </c>
       <c r="K29" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="L29" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="M29" t="n">
         <v>1197.2</v>
       </c>
     </row>
@@ -1894,30 +1716,24 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>30</v>
+        <v>32.62561649087784</v>
       </c>
       <c r="H30" t="n">
-        <v>33</v>
+        <v>31.71671240905515</v>
       </c>
       <c r="I30" t="n">
-        <v>32.62561649087784</v>
+        <v>10.33</v>
       </c>
       <c r="J30" t="n">
-        <v>31.71671240905515</v>
+        <v>31.01</v>
       </c>
       <c r="K30" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="L30" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="M30" t="n">
         <v>1107.96</v>
       </c>
     </row>
@@ -1943,30 +1759,24 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>28</v>
+        <v>25.41239199326127</v>
       </c>
       <c r="H31" t="n">
-        <v>27</v>
+        <v>23.1067866318623</v>
       </c>
       <c r="I31" t="n">
-        <v>25.41239199326127</v>
+        <v>8.99</v>
       </c>
       <c r="J31" t="n">
-        <v>23.1067866318623</v>
+        <v>26.98</v>
       </c>
       <c r="K31" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="L31" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="M31" t="n">
         <v>1088.55</v>
       </c>
     </row>
@@ -1992,30 +1802,24 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>27.92222181108417</v>
       </c>
       <c r="H32" t="n">
-        <v>28</v>
+        <v>27.92222181108417</v>
       </c>
       <c r="I32" t="n">
-        <v>27.92222181108417</v>
+        <v>9.68</v>
       </c>
       <c r="J32" t="n">
-        <v>27.92222181108417</v>
+        <v>37.35</v>
       </c>
       <c r="K32" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="L32" t="n">
-        <v>37.35</v>
-      </c>
-      <c r="M32" t="n">
         <v>1364.07</v>
       </c>
     </row>
@@ -2041,30 +1845,24 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G33" t="n">
-        <v>30</v>
+        <v>24.94767686517443</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>20.70536737029231</v>
       </c>
       <c r="I33" t="n">
-        <v>24.94767686517443</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>20.70536737029231</v>
+        <v>31.39</v>
       </c>
       <c r="K33" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="L33" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="M33" t="n">
         <v>1034.56</v>
       </c>
     </row>
@@ -2090,30 +1888,24 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G34" t="n">
-        <v>16</v>
+        <v>29.44430377451019</v>
       </c>
       <c r="H34" t="n">
-        <v>31</v>
+        <v>26.78382010850035</v>
       </c>
       <c r="I34" t="n">
-        <v>29.44430377451019</v>
+        <v>10.92</v>
       </c>
       <c r="J34" t="n">
-        <v>26.78382010850035</v>
+        <v>57.75</v>
       </c>
       <c r="K34" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="L34" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="M34" t="n">
         <v>1817.25</v>
       </c>
     </row>
@@ -2139,30 +1931,24 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>30</v>
+        <v>17.6058226484109</v>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>16.03373009524854</v>
       </c>
       <c r="I35" t="n">
-        <v>17.6058226484109</v>
+        <v>6.25</v>
       </c>
       <c r="J35" t="n">
-        <v>16.03373009524854</v>
+        <v>24.48</v>
       </c>
       <c r="K35" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="M35" t="n">
         <v>680.63</v>
       </c>
     </row>
@@ -2188,30 +1974,24 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F36" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>27.74748227407915</v>
       </c>
       <c r="H36" t="n">
-        <v>28</v>
+        <v>23.3497521242054</v>
       </c>
       <c r="I36" t="n">
-        <v>27.74748227407915</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>23.3497521242054</v>
+        <v>39.85</v>
       </c>
       <c r="K36" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="L36" t="n">
-        <v>39.85</v>
-      </c>
-      <c r="M36" t="n">
         <v>1382.74</v>
       </c>
     </row>
@@ -2237,30 +2017,24 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>36.65535835810059</v>
       </c>
       <c r="H37" t="n">
-        <v>36</v>
+        <v>36.03116282464502</v>
       </c>
       <c r="I37" t="n">
-        <v>36.65535835810059</v>
+        <v>12.22</v>
       </c>
       <c r="J37" t="n">
-        <v>36.03116282464502</v>
+        <v>37.99</v>
       </c>
       <c r="K37" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="L37" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="M37" t="n">
         <v>1396.3</v>
       </c>
     </row>
@@ -2286,30 +2060,24 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38" t="n">
-        <v>28</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="I38" t="n">
-        <v>33.88609227146581</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>33.88609227146581</v>
+        <v>15.78</v>
       </c>
       <c r="K38" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="L38" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="M38" t="n">
         <v>937.85</v>
       </c>
     </row>
@@ -2335,30 +2103,24 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G39" t="n">
-        <v>16</v>
+        <v>30.859845750899</v>
       </c>
       <c r="H39" t="n">
-        <v>31</v>
+        <v>25.24704871411539</v>
       </c>
       <c r="I39" t="n">
-        <v>30.859845750899</v>
+        <v>10.24</v>
       </c>
       <c r="J39" t="n">
-        <v>25.24704871411539</v>
+        <v>41.83</v>
       </c>
       <c r="K39" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="L39" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="M39" t="n">
         <v>1583.9</v>
       </c>
     </row>
@@ -2384,30 +2146,24 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
         <v>32</v>
       </c>
       <c r="G40" t="n">
-        <v>30</v>
+        <v>31.08026951869021</v>
       </c>
       <c r="H40" t="n">
-        <v>32</v>
+        <v>30.22551736404741</v>
       </c>
       <c r="I40" t="n">
-        <v>31.08026951869021</v>
+        <v>11.34</v>
       </c>
       <c r="J40" t="n">
-        <v>30.22551736404741</v>
+        <v>41.58</v>
       </c>
       <c r="K40" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="L40" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="M40" t="n">
         <v>1332.24</v>
       </c>
     </row>
@@ -2433,30 +2189,24 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>32</v>
+        <v>46.5</v>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="H41" t="n">
-        <v>46.5</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="I41" t="n">
-        <v>46.28653425546297</v>
+        <v>15.655</v>
       </c>
       <c r="J41" t="n">
-        <v>43.73998364553493</v>
+        <v>25.325</v>
       </c>
       <c r="K41" t="n">
-        <v>15.655</v>
-      </c>
-      <c r="L41" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="M41" t="n">
         <v>1905.95</v>
       </c>
     </row>
@@ -2482,30 +2232,24 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
-        <v>16</v>
+        <v>77.89964286114466</v>
       </c>
       <c r="H42" t="n">
-        <v>79</v>
+        <v>69.88378466261996</v>
       </c>
       <c r="I42" t="n">
-        <v>77.89964286114466</v>
+        <v>27.95</v>
       </c>
       <c r="J42" t="n">
-        <v>69.88378466261996</v>
+        <v>53.02</v>
       </c>
       <c r="K42" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="L42" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="M42" t="n">
         <v>4564.14</v>
       </c>
     </row>
@@ -2531,30 +2275,24 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G43" t="n">
-        <v>16</v>
+        <v>99.31498765662765</v>
       </c>
       <c r="H43" t="n">
-        <v>99</v>
+        <v>95.37481608003014</v>
       </c>
       <c r="I43" t="n">
-        <v>99.31498765662765</v>
+        <v>30.35</v>
       </c>
       <c r="J43" t="n">
-        <v>95.37481608003014</v>
+        <v>50.18</v>
       </c>
       <c r="K43" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="L43" t="n">
-        <v>50.18</v>
-      </c>
-      <c r="M43" t="n">
         <v>4494.74</v>
       </c>
     </row>
@@ -2580,30 +2318,24 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>91.5</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>89.56230017992026</v>
       </c>
       <c r="H44" t="n">
-        <v>91.5</v>
+        <v>89.56230017992026</v>
       </c>
       <c r="I44" t="n">
-        <v>89.56230017992026</v>
+        <v>28.495</v>
       </c>
       <c r="J44" t="n">
-        <v>89.56230017992026</v>
+        <v>43.915</v>
       </c>
       <c r="K44" t="n">
-        <v>28.495</v>
-      </c>
-      <c r="L44" t="n">
-        <v>43.915</v>
-      </c>
-      <c r="M44" t="n">
         <v>4409.985000000001</v>
       </c>
     </row>
@@ -2629,30 +2361,24 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>57.01279887086299</v>
       </c>
       <c r="H45" t="n">
-        <v>58</v>
+        <v>54.53279241896345</v>
       </c>
       <c r="I45" t="n">
-        <v>57.01279887086299</v>
+        <v>19.62</v>
       </c>
       <c r="J45" t="n">
-        <v>54.53279241896345</v>
+        <v>30.04</v>
       </c>
       <c r="K45" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="L45" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="M45" t="n">
         <v>2359.18</v>
       </c>
     </row>
@@ -2678,30 +2404,24 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G46" t="n">
-        <v>26</v>
+        <v>34.692940575509</v>
       </c>
       <c r="H46" t="n">
-        <v>37</v>
+        <v>29.04371331668617</v>
       </c>
       <c r="I46" t="n">
-        <v>34.692940575509</v>
+        <v>14.05</v>
       </c>
       <c r="J46" t="n">
-        <v>29.04371331668617</v>
+        <v>43.38</v>
       </c>
       <c r="K46" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="L46" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="M46" t="n">
         <v>1834.96</v>
       </c>
     </row>
@@ -2727,30 +2447,24 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F47" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>34</v>
+        <v>20.3803591604263</v>
       </c>
       <c r="H47" t="n">
-        <v>22</v>
+        <v>17.44241322820536</v>
       </c>
       <c r="I47" t="n">
-        <v>20.3803591604263</v>
+        <v>6.59</v>
       </c>
       <c r="J47" t="n">
-        <v>17.44241322820536</v>
+        <v>29.5</v>
       </c>
       <c r="K47" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="L47" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="M47" t="n">
         <v>1118.38</v>
       </c>
     </row>
@@ -2776,30 +2490,24 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F48" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G48" t="n">
-        <v>16</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="H48" t="n">
-        <v>72</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="I48" t="n">
-        <v>66.08783773399121</v>
+        <v>22.96</v>
       </c>
       <c r="J48" t="n">
-        <v>66.08783773399121</v>
+        <v>63.76</v>
       </c>
       <c r="K48" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="L48" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="M48" t="n">
         <v>3612.15</v>
       </c>
     </row>
@@ -2825,30 +2533,24 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>44.69992479110479</v>
       </c>
       <c r="H49" t="n">
-        <v>45</v>
+        <v>41.65069457049674</v>
       </c>
       <c r="I49" t="n">
-        <v>44.69992479110479</v>
+        <v>16.27</v>
       </c>
       <c r="J49" t="n">
-        <v>41.65069457049674</v>
+        <v>27.13</v>
       </c>
       <c r="K49" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="L49" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="M49" t="n">
         <v>1754.07</v>
       </c>
     </row>
@@ -2874,30 +2576,24 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>47.42702990086497</v>
       </c>
       <c r="H50" t="n">
-        <v>47</v>
+        <v>40.54913382958789</v>
       </c>
       <c r="I50" t="n">
-        <v>47.42702990086497</v>
+        <v>15.9</v>
       </c>
       <c r="J50" t="n">
-        <v>40.54913382958789</v>
+        <v>32.27</v>
       </c>
       <c r="K50" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="L50" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="M50" t="n">
         <v>1849.96</v>
       </c>
     </row>
@@ -2923,30 +2619,24 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>32</v>
+        <v>27.5</v>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>26.29779599661987</v>
       </c>
       <c r="H51" t="n">
-        <v>27.5</v>
+        <v>22.08287738270607</v>
       </c>
       <c r="I51" t="n">
-        <v>26.29779599661987</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>22.08287738270607</v>
+        <v>22.935</v>
       </c>
       <c r="K51" t="n">
-        <v>8.850000000000001</v>
-      </c>
-      <c r="L51" t="n">
-        <v>22.935</v>
-      </c>
-      <c r="M51" t="n">
         <v>993.3099999999999</v>
       </c>
     </row>
@@ -2972,30 +2662,24 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F52" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>26</v>
+        <v>13.29432725486207</v>
       </c>
       <c r="H52" t="n">
-        <v>14</v>
+        <v>13.15708531561203</v>
       </c>
       <c r="I52" t="n">
-        <v>13.29432725486207</v>
+        <v>3.74</v>
       </c>
       <c r="J52" t="n">
-        <v>13.15708531561203</v>
+        <v>6.65</v>
       </c>
       <c r="K52" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M52" t="n">
         <v>814.05</v>
       </c>
     </row>
@@ -3021,30 +2705,24 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F53" t="n">
-        <v>26</v>
+        <v>36.5</v>
       </c>
       <c r="G53" t="n">
-        <v>24</v>
+        <v>35.61002094677631</v>
       </c>
       <c r="H53" t="n">
-        <v>36.5</v>
+        <v>33.81904901861144</v>
       </c>
       <c r="I53" t="n">
-        <v>35.61002094677631</v>
+        <v>11.41</v>
       </c>
       <c r="J53" t="n">
-        <v>33.81904901861144</v>
+        <v>28.575</v>
       </c>
       <c r="K53" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="L53" t="n">
-        <v>28.575</v>
-      </c>
-      <c r="M53" t="n">
         <v>1489.095</v>
       </c>
     </row>
@@ -3070,30 +2748,24 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F54" t="n">
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>37.48118625374406</v>
       </c>
       <c r="H54" t="n">
-        <v>39.5</v>
+        <v>32.31613656729445</v>
       </c>
       <c r="I54" t="n">
-        <v>37.48118625374406</v>
+        <v>12.67</v>
       </c>
       <c r="J54" t="n">
-        <v>32.31613656729445</v>
+        <v>23.195</v>
       </c>
       <c r="K54" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="L54" t="n">
-        <v>23.195</v>
-      </c>
-      <c r="M54" t="n">
         <v>1337.01</v>
       </c>
     </row>
@@ -3119,30 +2791,24 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F55" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G55" t="n">
-        <v>30</v>
+        <v>119.1440398618296</v>
       </c>
       <c r="H55" t="n">
-        <v>126</v>
+        <v>88.5120814668456</v>
       </c>
       <c r="I55" t="n">
-        <v>119.1440398618296</v>
+        <v>42.74</v>
       </c>
       <c r="J55" t="n">
-        <v>88.5120814668456</v>
+        <v>33.33</v>
       </c>
       <c r="K55" t="n">
-        <v>42.74</v>
-      </c>
-      <c r="L55" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="M55" t="n">
         <v>4603.86</v>
       </c>
     </row>
@@ -3168,30 +2834,24 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>91.47126299123049</v>
       </c>
       <c r="H56" t="n">
-        <v>92</v>
+        <v>90.3232009521228</v>
       </c>
       <c r="I56" t="n">
-        <v>91.47126299123049</v>
+        <v>32.65</v>
       </c>
       <c r="J56" t="n">
-        <v>90.3232009521228</v>
+        <v>44.36</v>
       </c>
       <c r="K56" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="L56" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="M56" t="n">
         <v>4986.41</v>
       </c>
     </row>
@@ -3217,30 +2877,24 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>131.2630190390913</v>
       </c>
       <c r="H57" t="n">
-        <v>137</v>
+        <v>134.0697263200833</v>
       </c>
       <c r="I57" t="n">
-        <v>131.2630190390913</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>134.0697263200833</v>
+        <v>33.305</v>
       </c>
       <c r="K57" t="n">
-        <v>44.40000000000001</v>
-      </c>
-      <c r="L57" t="n">
-        <v>33.305</v>
-      </c>
-      <c r="M57" t="n">
         <v>4854.77</v>
       </c>
     </row>
@@ -3266,30 +2920,24 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
-        <v>16</v>
+        <v>108.1612501826484</v>
       </c>
       <c r="H58" t="n">
-        <v>109</v>
+        <v>101.5637209913287</v>
       </c>
       <c r="I58" t="n">
-        <v>108.1612501826484</v>
+        <v>35.56</v>
       </c>
       <c r="J58" t="n">
-        <v>101.5637209913287</v>
+        <v>41.63</v>
       </c>
       <c r="K58" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="L58" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="M58" t="n">
         <v>5127.71</v>
       </c>
     </row>
@@ -3315,30 +2963,24 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
-        <v>14</v>
+        <v>106.2515261101972</v>
       </c>
       <c r="H59" t="n">
-        <v>110</v>
+        <v>99.44980825950968</v>
       </c>
       <c r="I59" t="n">
-        <v>106.2515261101972</v>
+        <v>41.26</v>
       </c>
       <c r="J59" t="n">
-        <v>99.44980825950968</v>
+        <v>55.04</v>
       </c>
       <c r="K59" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="L59" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="M59" t="n">
         <v>6939.63</v>
       </c>
     </row>
@@ -3364,30 +3006,24 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F60" t="n">
-        <v>26</v>
+        <v>121.5</v>
       </c>
       <c r="G60" t="n">
-        <v>24</v>
+        <v>119.4008563585834</v>
       </c>
       <c r="H60" t="n">
-        <v>121.5</v>
+        <v>104.9704822751009</v>
       </c>
       <c r="I60" t="n">
-        <v>119.4008563585834</v>
+        <v>39.81</v>
       </c>
       <c r="J60" t="n">
-        <v>104.9704822751009</v>
+        <v>37.045</v>
       </c>
       <c r="K60" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="L60" t="n">
-        <v>37.045</v>
-      </c>
-      <c r="M60" t="n">
         <v>4898.985000000001</v>
       </c>
     </row>
@@ -3413,30 +3049,24 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F61" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>93.25259214827778</v>
       </c>
       <c r="H61" t="n">
-        <v>99</v>
+        <v>79.30519547624338</v>
       </c>
       <c r="I61" t="n">
-        <v>93.25259214827778</v>
+        <v>35.52</v>
       </c>
       <c r="J61" t="n">
-        <v>79.30519547624338</v>
+        <v>48.01</v>
       </c>
       <c r="K61" t="n">
-        <v>35.52</v>
-      </c>
-      <c r="L61" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="M61" t="n">
         <v>5713.71</v>
       </c>
     </row>
@@ -3462,30 +3092,24 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>66.0591983786978</v>
       </c>
       <c r="H62" t="n">
-        <v>70</v>
+        <v>66.0591983786978</v>
       </c>
       <c r="I62" t="n">
-        <v>66.0591983786978</v>
+        <v>21.61</v>
       </c>
       <c r="J62" t="n">
-        <v>66.0591983786978</v>
+        <v>40.29</v>
       </c>
       <c r="K62" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="L62" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="M62" t="n">
         <v>3160.41</v>
       </c>
     </row>
@@ -3511,30 +3135,24 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F63" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G63" t="n">
-        <v>32</v>
+        <v>59.16976230335201</v>
       </c>
       <c r="H63" t="n">
-        <v>59</v>
+        <v>59.16976230335201</v>
       </c>
       <c r="I63" t="n">
-        <v>59.16976230335201</v>
+        <v>17.45</v>
       </c>
       <c r="J63" t="n">
-        <v>59.16976230335201</v>
+        <v>9.52</v>
       </c>
       <c r="K63" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="M63" t="n">
         <v>1904.19</v>
       </c>
     </row>
@@ -3560,30 +3178,24 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="H64" t="n">
-        <v>77</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="I64" t="n">
-        <v>71.14222974971777</v>
+        <v>23.63</v>
       </c>
       <c r="J64" t="n">
-        <v>71.14222974971777</v>
+        <v>42.88</v>
       </c>
       <c r="K64" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="L64" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="M64" t="n">
         <v>3586.45</v>
       </c>
     </row>
@@ -3609,30 +3221,24 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G65" t="n">
-        <v>18</v>
+        <v>85.49072515085162</v>
       </c>
       <c r="H65" t="n">
-        <v>88</v>
+        <v>80.38290886161178</v>
       </c>
       <c r="I65" t="n">
-        <v>85.49072515085162</v>
+        <v>26.28</v>
       </c>
       <c r="J65" t="n">
-        <v>80.38290886161178</v>
+        <v>54.39</v>
       </c>
       <c r="K65" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="L65" t="n">
-        <v>54.39</v>
-      </c>
-      <c r="M65" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -3658,30 +3264,24 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>68.506495392711</v>
       </c>
       <c r="H66" t="n">
-        <v>73</v>
+        <v>64.14140679385784</v>
       </c>
       <c r="I66" t="n">
-        <v>68.506495392711</v>
+        <v>21.75</v>
       </c>
       <c r="J66" t="n">
-        <v>64.14140679385784</v>
+        <v>36.39</v>
       </c>
       <c r="K66" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="L66" t="n">
-        <v>36.39</v>
-      </c>
-      <c r="M66" t="n">
         <v>2954.34</v>
       </c>
     </row>
@@ -3707,30 +3307,24 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G67" t="n">
-        <v>16</v>
+        <v>79.57000489281678</v>
       </c>
       <c r="H67" t="n">
-        <v>88</v>
+        <v>76.37024494227703</v>
       </c>
       <c r="I67" t="n">
-        <v>79.57000489281678</v>
+        <v>27.11</v>
       </c>
       <c r="J67" t="n">
-        <v>76.37024494227703</v>
+        <v>46.19</v>
       </c>
       <c r="K67" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="L67" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="M67" t="n">
         <v>4199.6</v>
       </c>
     </row>
@@ -3756,30 +3350,24 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>80.21300094189951</v>
       </c>
       <c r="H68" t="n">
-        <v>84</v>
+        <v>71.80208819522906</v>
       </c>
       <c r="I68" t="n">
-        <v>80.21300094189951</v>
+        <v>25.88</v>
       </c>
       <c r="J68" t="n">
-        <v>71.80208819522906</v>
+        <v>35.34</v>
       </c>
       <c r="K68" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="L68" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="M68" t="n">
         <v>3543.97</v>
       </c>
     </row>
@@ -3805,30 +3393,24 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="F69" t="n">
-        <v>19.33333333333333</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>17.33333333333333</v>
+        <v>78.90310855310231</v>
       </c>
       <c r="H69" t="n">
-        <v>83.33333333333333</v>
+        <v>75.17833969041651</v>
       </c>
       <c r="I69" t="n">
-        <v>78.90310855310231</v>
+        <v>24.88</v>
       </c>
       <c r="J69" t="n">
-        <v>75.17833969041651</v>
+        <v>42.47666666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="L69" t="n">
-        <v>42.47666666666667</v>
-      </c>
-      <c r="M69" t="n">
         <v>3818.593333333334</v>
       </c>
     </row>
@@ -3854,30 +3436,24 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>66.5</v>
       </c>
       <c r="G70" t="n">
-        <v>22</v>
+        <v>61.22113693769167</v>
       </c>
       <c r="H70" t="n">
-        <v>66.5</v>
+        <v>58.85752597358655</v>
       </c>
       <c r="I70" t="n">
-        <v>61.22113693769167</v>
+        <v>23.3</v>
       </c>
       <c r="J70" t="n">
-        <v>58.85752597358655</v>
+        <v>49.615</v>
       </c>
       <c r="K70" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="L70" t="n">
-        <v>49.615</v>
-      </c>
-      <c r="M70" t="n">
         <v>3451.505</v>
       </c>
     </row>
@@ -3903,30 +3479,24 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G71" t="n">
-        <v>28</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="H71" t="n">
-        <v>58</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="I71" t="n">
-        <v>55.20957861484356</v>
+        <v>21.08</v>
       </c>
       <c r="J71" t="n">
-        <v>55.20957861484356</v>
+        <v>33.52</v>
       </c>
       <c r="K71" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="L71" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="M71" t="n">
         <v>2607.98</v>
       </c>
     </row>
@@ -3952,30 +3522,24 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G72" t="n">
-        <v>28</v>
+        <v>56.27199872207184</v>
       </c>
       <c r="H72" t="n">
-        <v>59</v>
+        <v>56.27199872207184</v>
       </c>
       <c r="I72" t="n">
-        <v>56.27199872207184</v>
+        <v>20.41</v>
       </c>
       <c r="J72" t="n">
-        <v>56.27199872207184</v>
+        <v>35.05</v>
       </c>
       <c r="K72" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="L72" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="M72" t="n">
         <v>2513.76</v>
       </c>
     </row>
@@ -4001,30 +3565,24 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G73" t="n">
-        <v>26</v>
+        <v>45.92877912207641</v>
       </c>
       <c r="H73" t="n">
-        <v>46</v>
+        <v>39.41673357903083</v>
       </c>
       <c r="I73" t="n">
-        <v>45.92877912207641</v>
+        <v>13.88</v>
       </c>
       <c r="J73" t="n">
-        <v>39.41673357903083</v>
+        <v>15.97</v>
       </c>
       <c r="K73" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="M73" t="n">
         <v>1884.88</v>
       </c>
     </row>
@@ -4050,30 +3608,24 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G74" t="n">
-        <v>28</v>
+        <v>69.07506137381468</v>
       </c>
       <c r="H74" t="n">
-        <v>70</v>
+        <v>68.19823150131346</v>
       </c>
       <c r="I74" t="n">
-        <v>69.07506137381468</v>
+        <v>23.35</v>
       </c>
       <c r="J74" t="n">
-        <v>68.19823150131346</v>
+        <v>27.44</v>
       </c>
       <c r="K74" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="L74" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="M74" t="n">
         <v>2670.9</v>
       </c>
     </row>
@@ -4099,30 +3651,24 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F75" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G75" t="n">
-        <v>30</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="H75" t="n">
-        <v>62</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="I75" t="n">
-        <v>62.02095992127803</v>
+        <v>22.01</v>
       </c>
       <c r="J75" t="n">
-        <v>62.02095992127803</v>
+        <v>41.57</v>
       </c>
       <c r="K75" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="L75" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="M75" t="n">
         <v>2727.98</v>
       </c>
     </row>
@@ -4148,30 +3694,24 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G76" t="n">
-        <v>30</v>
+        <v>44.21312536016151</v>
       </c>
       <c r="H76" t="n">
-        <v>44</v>
+        <v>42.76459551987627</v>
       </c>
       <c r="I76" t="n">
-        <v>44.21312536016151</v>
+        <v>15.45</v>
       </c>
       <c r="J76" t="n">
-        <v>42.76459551987627</v>
+        <v>23.16</v>
       </c>
       <c r="K76" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="L76" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="M76" t="n">
         <v>1854.75</v>
       </c>
     </row>
@@ -4197,30 +3737,24 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F77" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G77" t="n">
-        <v>30</v>
+        <v>61.46320937415982</v>
       </c>
       <c r="H77" t="n">
-        <v>63</v>
+        <v>61.46320937415982</v>
       </c>
       <c r="I77" t="n">
-        <v>61.46320937415982</v>
+        <v>21.71</v>
       </c>
       <c r="J77" t="n">
-        <v>61.46320937415982</v>
+        <v>34.42</v>
       </c>
       <c r="K77" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="L77" t="n">
-        <v>34.42</v>
-      </c>
-      <c r="M77" t="n">
         <v>2076.71</v>
       </c>
     </row>
@@ -4246,30 +3780,24 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G78" t="n">
-        <v>28</v>
+        <v>57.23390227948497</v>
       </c>
       <c r="H78" t="n">
-        <v>60</v>
+        <v>57.23390227948497</v>
       </c>
       <c r="I78" t="n">
-        <v>57.23390227948497</v>
+        <v>21.94</v>
       </c>
       <c r="J78" t="n">
-        <v>57.23390227948497</v>
+        <v>38</v>
       </c>
       <c r="K78" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="L78" t="n">
-        <v>38</v>
-      </c>
-      <c r="M78" t="n">
         <v>2870.19</v>
       </c>
     </row>
@@ -4295,30 +3823,24 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G79" t="n">
-        <v>28</v>
+        <v>55.74692233591907</v>
       </c>
       <c r="H79" t="n">
-        <v>56</v>
+        <v>53.29054195631661</v>
       </c>
       <c r="I79" t="n">
-        <v>55.74692233591907</v>
+        <v>18.34</v>
       </c>
       <c r="J79" t="n">
-        <v>53.29054195631661</v>
+        <v>29.98</v>
       </c>
       <c r="K79" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="L79" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="M79" t="n">
         <v>2135.85</v>
       </c>
     </row>
@@ -4344,30 +3866,24 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F80" t="n">
-        <v>32</v>
+        <v>43.5</v>
       </c>
       <c r="G80" t="n">
-        <v>30</v>
+        <v>42.79401379875322</v>
       </c>
       <c r="H80" t="n">
-        <v>43.5</v>
+        <v>41.93053322775759</v>
       </c>
       <c r="I80" t="n">
-        <v>42.79401379875322</v>
+        <v>13.125</v>
       </c>
       <c r="J80" t="n">
-        <v>41.93053322775759</v>
+        <v>20.93</v>
       </c>
       <c r="K80" t="n">
-        <v>13.125</v>
-      </c>
-      <c r="L80" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="M80" t="n">
         <v>1262.655</v>
       </c>
     </row>
@@ -4393,30 +3909,24 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G81" t="n">
-        <v>28</v>
+        <v>37.1139849496659</v>
       </c>
       <c r="H81" t="n">
-        <v>37</v>
+        <v>33.43828079471414</v>
       </c>
       <c r="I81" t="n">
-        <v>37.1139849496659</v>
+        <v>10.41</v>
       </c>
       <c r="J81" t="n">
-        <v>33.43828079471414</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="M81" t="n">
         <v>1100.22</v>
       </c>
     </row>
@@ -4442,30 +3952,24 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F82" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G82" t="n">
-        <v>30</v>
+        <v>53.66307321626935</v>
       </c>
       <c r="H82" t="n">
-        <v>55</v>
+        <v>53.2065801772237</v>
       </c>
       <c r="I82" t="n">
-        <v>53.66307321626935</v>
+        <v>17.76</v>
       </c>
       <c r="J82" t="n">
-        <v>53.2065801772237</v>
+        <v>29.87</v>
       </c>
       <c r="K82" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="L82" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="M82" t="n">
         <v>1762.94</v>
       </c>
     </row>
@@ -4491,30 +3995,24 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F83" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G83" t="n">
-        <v>30</v>
+        <v>60.14358833222585</v>
       </c>
       <c r="H83" t="n">
-        <v>63</v>
+        <v>60.14358833222585</v>
       </c>
       <c r="I83" t="n">
-        <v>60.14358833222585</v>
+        <v>21.29</v>
       </c>
       <c r="J83" t="n">
-        <v>60.14358833222585</v>
+        <v>25.1</v>
       </c>
       <c r="K83" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="L83" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="M83" t="n">
         <v>2588.28</v>
       </c>
     </row>
@@ -4540,30 +4038,24 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>28</v>
+        <v>97.35325665112374</v>
       </c>
       <c r="H84" t="n">
-        <v>100</v>
+        <v>78.81769772222889</v>
       </c>
       <c r="I84" t="n">
-        <v>97.35325665112374</v>
+        <v>28.24</v>
       </c>
       <c r="J84" t="n">
-        <v>78.81769772222889</v>
+        <v>21.44</v>
       </c>
       <c r="K84" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="L84" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="M84" t="n">
         <v>2527.4</v>
       </c>
     </row>
@@ -4589,30 +4081,24 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F85" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G85" t="n">
-        <v>30</v>
+        <v>55.50028662687221</v>
       </c>
       <c r="H85" t="n">
-        <v>55</v>
+        <v>55.50028662687221</v>
       </c>
       <c r="I85" t="n">
-        <v>55.50028662687221</v>
+        <v>17.27</v>
       </c>
       <c r="J85" t="n">
-        <v>55.50028662687221</v>
+        <v>36.42</v>
       </c>
       <c r="K85" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="L85" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="M85" t="n">
         <v>2051.4</v>
       </c>
     </row>
@@ -4638,30 +4124,24 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F86" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G86" t="n">
-        <v>28</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="H86" t="n">
-        <v>62</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="I86" t="n">
-        <v>61.58991270946142</v>
+        <v>18.71</v>
       </c>
       <c r="J86" t="n">
-        <v>61.58991270946142</v>
+        <v>31.05</v>
       </c>
       <c r="K86" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="L86" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="M86" t="n">
         <v>2480.36</v>
       </c>
     </row>
@@ -4687,30 +4167,24 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F87" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G87" t="n">
-        <v>16</v>
+        <v>60.40129590663877</v>
       </c>
       <c r="H87" t="n">
-        <v>61</v>
+        <v>57.35624313697035</v>
       </c>
       <c r="I87" t="n">
-        <v>60.40129590663877</v>
+        <v>20.49</v>
       </c>
       <c r="J87" t="n">
-        <v>57.35624313697035</v>
+        <v>39.87</v>
       </c>
       <c r="K87" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="L87" t="n">
-        <v>39.87</v>
-      </c>
-      <c r="M87" t="n">
         <v>3092.92</v>
       </c>
     </row>
@@ -4736,30 +4210,24 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F88" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G88" t="n">
-        <v>30</v>
+        <v>86.78742873443352</v>
       </c>
       <c r="H88" t="n">
-        <v>90</v>
+        <v>75.17787924541061</v>
       </c>
       <c r="I88" t="n">
-        <v>86.78742873443352</v>
+        <v>29.94</v>
       </c>
       <c r="J88" t="n">
-        <v>75.17787924541061</v>
+        <v>32.79</v>
       </c>
       <c r="K88" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="L88" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="M88" t="n">
         <v>3003.01</v>
       </c>
     </row>
@@ -4785,30 +4253,24 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>113.7561632743857</v>
       </c>
       <c r="H89" t="n">
-        <v>117</v>
+        <v>98.80007362198285</v>
       </c>
       <c r="I89" t="n">
-        <v>113.7561632743857</v>
+        <v>41.09</v>
       </c>
       <c r="J89" t="n">
-        <v>98.80007362198285</v>
+        <v>54.86</v>
       </c>
       <c r="K89" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="L89" t="n">
-        <v>54.86</v>
-      </c>
-      <c r="M89" t="n">
         <v>6457.9</v>
       </c>
     </row>
@@ -4834,30 +4296,24 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F90" t="n">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G90" t="n">
-        <v>16</v>
+        <v>137.50889554959</v>
       </c>
       <c r="H90" t="n">
-        <v>147</v>
+        <v>115.6751512896567</v>
       </c>
       <c r="I90" t="n">
-        <v>137.50889554959</v>
+        <v>50.56</v>
       </c>
       <c r="J90" t="n">
-        <v>115.6751512896567</v>
+        <v>41.7</v>
       </c>
       <c r="K90" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="L90" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="M90" t="n">
         <v>7528.27</v>
       </c>
     </row>
@@ -4883,30 +4339,24 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="G91" t="n">
-        <v>18</v>
+        <v>179.6598565617463</v>
       </c>
       <c r="H91" t="n">
-        <v>183</v>
+        <v>169.8854835883062</v>
       </c>
       <c r="I91" t="n">
-        <v>179.6598565617463</v>
+        <v>58.81</v>
       </c>
       <c r="J91" t="n">
-        <v>169.8854835883062</v>
+        <v>36.36</v>
       </c>
       <c r="K91" t="n">
-        <v>58.81</v>
-      </c>
-      <c r="L91" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="M91" t="n">
         <v>7754.48</v>
       </c>
     </row>
@@ -4932,30 +4382,24 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="G92" t="n">
-        <v>30</v>
+        <v>186.8821991819847</v>
       </c>
       <c r="H92" t="n">
-        <v>188</v>
+        <v>174.5719788513643</v>
       </c>
       <c r="I92" t="n">
-        <v>186.8821991819847</v>
+        <v>59.93</v>
       </c>
       <c r="J92" t="n">
-        <v>174.5719788513643</v>
+        <v>22.44</v>
       </c>
       <c r="K92" t="n">
-        <v>59.93</v>
-      </c>
-      <c r="L92" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="M92" t="n">
         <v>4690.96</v>
       </c>
     </row>
@@ -4981,30 +4425,24 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>117.6803009571155</v>
       </c>
       <c r="H93" t="n">
-        <v>122</v>
+        <v>111.1138383525796</v>
       </c>
       <c r="I93" t="n">
-        <v>117.6803009571155</v>
+        <v>44.5</v>
       </c>
       <c r="J93" t="n">
-        <v>111.1138383525796</v>
+        <v>44.93</v>
       </c>
       <c r="K93" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L93" t="n">
-        <v>44.93</v>
-      </c>
-      <c r="M93" t="n">
         <v>6199.74</v>
       </c>
     </row>
@@ -5030,30 +4468,24 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="G94" t="n">
-        <v>23</v>
+        <v>131.2547899594067</v>
       </c>
       <c r="H94" t="n">
-        <v>137</v>
+        <v>107.7544080951072</v>
       </c>
       <c r="I94" t="n">
-        <v>131.2547899594067</v>
+        <v>43.695</v>
       </c>
       <c r="J94" t="n">
-        <v>107.7544080951072</v>
+        <v>39.84</v>
       </c>
       <c r="K94" t="n">
-        <v>43.695</v>
-      </c>
-      <c r="L94" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="M94" t="n">
         <v>5322.295</v>
       </c>
     </row>
@@ -5079,30 +4511,24 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="G95" t="n">
-        <v>16</v>
+        <v>128.612815727915</v>
       </c>
       <c r="H95" t="n">
-        <v>129</v>
+        <v>111.8468475018524</v>
       </c>
       <c r="I95" t="n">
-        <v>128.612815727915</v>
+        <v>43.99</v>
       </c>
       <c r="J95" t="n">
-        <v>111.8468475018524</v>
+        <v>38.97</v>
       </c>
       <c r="K95" t="n">
-        <v>43.99</v>
-      </c>
-      <c r="L95" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="M95" t="n">
         <v>6032.05</v>
       </c>
     </row>
@@ -5128,30 +4554,24 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F96" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G96" t="n">
-        <v>30</v>
+        <v>34.1088841392428</v>
       </c>
       <c r="H96" t="n">
-        <v>39</v>
+        <v>33.51536857132167</v>
       </c>
       <c r="I96" t="n">
-        <v>34.1088841392428</v>
+        <v>13.43</v>
       </c>
       <c r="J96" t="n">
-        <v>33.51536857132167</v>
+        <v>33.78</v>
       </c>
       <c r="K96" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="L96" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="M96" t="n">
         <v>1437.7</v>
       </c>
     </row>
@@ -5177,30 +4597,24 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>24</v>
+        <v>39.5</v>
       </c>
       <c r="G97" t="n">
-        <v>22</v>
+        <v>38.15709191852535</v>
       </c>
       <c r="H97" t="n">
-        <v>39.5</v>
+        <v>37.901222596514</v>
       </c>
       <c r="I97" t="n">
-        <v>38.15709191852535</v>
+        <v>12.28</v>
       </c>
       <c r="J97" t="n">
-        <v>37.901222596514</v>
+        <v>26.68</v>
       </c>
       <c r="K97" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="L97" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="M97" t="n">
         <v>1398.39</v>
       </c>
     </row>
@@ -5226,30 +4640,24 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F98" t="n">
         <v>32</v>
       </c>
       <c r="G98" t="n">
-        <v>30</v>
+        <v>32.40894577058911</v>
       </c>
       <c r="H98" t="n">
-        <v>32</v>
+        <v>27.87227245011561</v>
       </c>
       <c r="I98" t="n">
-        <v>32.40894577058911</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>27.87227245011561</v>
+        <v>16.26</v>
       </c>
       <c r="K98" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="L98" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="M98" t="n">
         <v>872.84</v>
       </c>
     </row>
@@ -5275,30 +4683,24 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F99" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G99" t="n">
-        <v>14</v>
+        <v>45.11432843779984</v>
       </c>
       <c r="H99" t="n">
-        <v>47</v>
+        <v>45.01365726001295</v>
       </c>
       <c r="I99" t="n">
-        <v>45.11432843779984</v>
+        <v>16.3</v>
       </c>
       <c r="J99" t="n">
-        <v>45.01365726001295</v>
+        <v>50.88</v>
       </c>
       <c r="K99" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="L99" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="M99" t="n">
         <v>2593.78</v>
       </c>
     </row>
@@ -5324,30 +4726,24 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G100" t="n">
-        <v>28</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="H100" t="n">
-        <v>39</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="I100" t="n">
-        <v>39.38547301865003</v>
+        <v>12.47</v>
       </c>
       <c r="J100" t="n">
-        <v>39.38547301865003</v>
+        <v>27.19</v>
       </c>
       <c r="K100" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="L100" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="M100" t="n">
         <v>1398.13</v>
       </c>
     </row>
@@ -5373,30 +4769,24 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F101" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G101" t="n">
-        <v>30</v>
+        <v>36.79391028851607</v>
       </c>
       <c r="H101" t="n">
-        <v>40</v>
+        <v>34.1949615403443</v>
       </c>
       <c r="I101" t="n">
-        <v>36.79391028851607</v>
+        <v>12.83</v>
       </c>
       <c r="J101" t="n">
-        <v>34.1949615403443</v>
+        <v>25.02</v>
       </c>
       <c r="K101" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="L101" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="M101" t="n">
         <v>1276.1</v>
       </c>
     </row>
@@ -5422,30 +4812,24 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F102" t="n">
-        <v>32</v>
+        <v>43.5</v>
       </c>
       <c r="G102" t="n">
-        <v>30</v>
+        <v>42.18099462298987</v>
       </c>
       <c r="H102" t="n">
-        <v>43.5</v>
+        <v>42.18099462298987</v>
       </c>
       <c r="I102" t="n">
-        <v>42.18099462298987</v>
+        <v>13.62</v>
       </c>
       <c r="J102" t="n">
-        <v>42.18099462298987</v>
+        <v>26.5</v>
       </c>
       <c r="K102" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="L102" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="M102" t="n">
         <v>1349.23</v>
       </c>
     </row>
@@ -5471,30 +4855,24 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>17</v>
+        <v>96.5</v>
       </c>
       <c r="G103" t="n">
-        <v>15</v>
+        <v>93.53189076520235</v>
       </c>
       <c r="H103" t="n">
-        <v>96.5</v>
+        <v>79.84418101656451</v>
       </c>
       <c r="I103" t="n">
-        <v>93.53189076520235</v>
+        <v>31.525</v>
       </c>
       <c r="J103" t="n">
-        <v>79.84418101656451</v>
+        <v>46.325</v>
       </c>
       <c r="K103" t="n">
-        <v>31.525</v>
-      </c>
-      <c r="L103" t="n">
-        <v>46.325</v>
-      </c>
-      <c r="M103" t="n">
         <v>4411.27</v>
       </c>
     </row>
@@ -5520,30 +4898,24 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F104" t="n">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="G104" t="n">
-        <v>32</v>
+        <v>107.9722123974601</v>
       </c>
       <c r="H104" t="n">
-        <v>113</v>
+        <v>94.73032515168934</v>
       </c>
       <c r="I104" t="n">
-        <v>107.9722123974601</v>
+        <v>38.79</v>
       </c>
       <c r="J104" t="n">
-        <v>94.73032515168934</v>
+        <v>28.87</v>
       </c>
       <c r="K104" t="n">
-        <v>38.79</v>
-      </c>
-      <c r="L104" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="M104" t="n">
         <v>3553.39</v>
       </c>
     </row>
@@ -5569,30 +4941,24 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F105" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G105" t="n">
-        <v>16</v>
+        <v>79.54819881530756</v>
       </c>
       <c r="H105" t="n">
-        <v>83</v>
+        <v>79.49945389433788</v>
       </c>
       <c r="I105" t="n">
-        <v>79.54819881530756</v>
+        <v>30.62</v>
       </c>
       <c r="J105" t="n">
-        <v>79.49945389433788</v>
+        <v>69.25</v>
       </c>
       <c r="K105" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="L105" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="M105" t="n">
         <v>5177.13</v>
       </c>
     </row>
@@ -5618,30 +4984,24 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G106" t="n">
-        <v>16</v>
+        <v>81.12670331244388</v>
       </c>
       <c r="H106" t="n">
-        <v>87</v>
+        <v>68.19635100725603</v>
       </c>
       <c r="I106" t="n">
-        <v>81.12670331244388</v>
+        <v>29.4</v>
       </c>
       <c r="J106" t="n">
-        <v>68.19635100725603</v>
+        <v>44.08</v>
       </c>
       <c r="K106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="L106" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="M106" t="n">
         <v>4181.98</v>
       </c>
     </row>
@@ -5667,30 +5027,24 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F107" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>81.52936758603394</v>
       </c>
       <c r="H107" t="n">
-        <v>82</v>
+        <v>79.24729555557188</v>
       </c>
       <c r="I107" t="n">
-        <v>81.52936758603394</v>
+        <v>27.535</v>
       </c>
       <c r="J107" t="n">
-        <v>79.24729555557188</v>
+        <v>40.795</v>
       </c>
       <c r="K107" t="n">
-        <v>27.535</v>
-      </c>
-      <c r="L107" t="n">
-        <v>40.795</v>
-      </c>
-      <c r="M107" t="n">
         <v>3776.805</v>
       </c>
     </row>
@@ -5716,30 +5070,24 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F108" t="n">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="G108" t="n">
-        <v>16</v>
+        <v>102.0816029892906</v>
       </c>
       <c r="H108" t="n">
-        <v>104</v>
+        <v>81.96334539433394</v>
       </c>
       <c r="I108" t="n">
-        <v>102.0816029892906</v>
+        <v>33.59</v>
       </c>
       <c r="J108" t="n">
-        <v>81.96334539433394</v>
+        <v>40.3</v>
       </c>
       <c r="K108" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="L108" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="M108" t="n">
         <v>4492.06</v>
       </c>
     </row>
@@ -5765,30 +5113,24 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F109" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G109" t="n">
-        <v>16</v>
+        <v>85.00316731552465</v>
       </c>
       <c r="H109" t="n">
-        <v>88</v>
+        <v>67.37174832760881</v>
       </c>
       <c r="I109" t="n">
-        <v>85.00316731552465</v>
+        <v>29.92</v>
       </c>
       <c r="J109" t="n">
-        <v>67.37174832760881</v>
+        <v>40.1</v>
       </c>
       <c r="K109" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="L109" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="M109" t="n">
         <v>4140.32</v>
       </c>
     </row>
@@ -5814,30 +5156,24 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F110" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G110" t="n">
-        <v>16</v>
+        <v>92.71265036536886</v>
       </c>
       <c r="H110" t="n">
-        <v>96</v>
+        <v>77.32101493747103</v>
       </c>
       <c r="I110" t="n">
-        <v>92.71265036536886</v>
+        <v>31.72</v>
       </c>
       <c r="J110" t="n">
-        <v>77.32101493747103</v>
+        <v>45.28</v>
       </c>
       <c r="K110" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="L110" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="M110" t="n">
         <v>4157.56</v>
       </c>
     </row>
@@ -5863,30 +5199,24 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F111" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G111" t="n">
-        <v>16</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="H111" t="n">
-        <v>97</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="I111" t="n">
-        <v>92.76675635975053</v>
+        <v>28.95</v>
       </c>
       <c r="J111" t="n">
-        <v>84.99343789125676</v>
+        <v>47.05</v>
       </c>
       <c r="K111" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="L111" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="M111" t="n">
         <v>3975.87</v>
       </c>
     </row>
@@ -5912,30 +5242,24 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F112" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G112" t="n">
-        <v>30</v>
+        <v>72.13251683196465</v>
       </c>
       <c r="H112" t="n">
-        <v>72</v>
+        <v>55.56145069844642</v>
       </c>
       <c r="I112" t="n">
-        <v>72.13251683196465</v>
+        <v>22.81</v>
       </c>
       <c r="J112" t="n">
-        <v>55.56145069844642</v>
+        <v>34.59</v>
       </c>
       <c r="K112" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="L112" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="M112" t="n">
         <v>2189.33</v>
       </c>
     </row>
@@ -5961,30 +5285,24 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F113" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G113" t="n">
-        <v>28</v>
+        <v>71.60213370846034</v>
       </c>
       <c r="H113" t="n">
-        <v>78</v>
+        <v>68.97138176414914</v>
       </c>
       <c r="I113" t="n">
-        <v>71.60213370846034</v>
+        <v>25.18</v>
       </c>
       <c r="J113" t="n">
-        <v>68.97138176414914</v>
+        <v>29.14</v>
       </c>
       <c r="K113" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="L113" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="M113" t="n">
         <v>2541.2</v>
       </c>
     </row>
@@ -6010,30 +5328,24 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F114" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G114" t="n">
-        <v>16</v>
+        <v>92.72406248262513</v>
       </c>
       <c r="H114" t="n">
-        <v>97</v>
+        <v>77.9030693144562</v>
       </c>
       <c r="I114" t="n">
-        <v>92.72406248262513</v>
+        <v>30.01</v>
       </c>
       <c r="J114" t="n">
-        <v>77.9030693144562</v>
+        <v>32.6</v>
       </c>
       <c r="K114" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="L114" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="M114" t="n">
         <v>3923.92</v>
       </c>
     </row>
@@ -6059,30 +5371,24 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F115" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G115" t="n">
-        <v>28</v>
+        <v>82.62724291752032</v>
       </c>
       <c r="H115" t="n">
-        <v>83</v>
+        <v>80.94017739825928</v>
       </c>
       <c r="I115" t="n">
-        <v>82.62724291752032</v>
+        <v>26.94</v>
       </c>
       <c r="J115" t="n">
-        <v>80.94017739825928</v>
+        <v>23.7</v>
       </c>
       <c r="K115" t="n">
-        <v>26.94</v>
-      </c>
-      <c r="L115" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="M115" t="n">
         <v>2594.65</v>
       </c>
     </row>
@@ -6108,30 +5414,24 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F116" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G116" t="n">
-        <v>30</v>
+        <v>63.01043925096315</v>
       </c>
       <c r="H116" t="n">
-        <v>66</v>
+        <v>60.31679969977628</v>
       </c>
       <c r="I116" t="n">
-        <v>63.01043925096315</v>
+        <v>20.49</v>
       </c>
       <c r="J116" t="n">
-        <v>60.31679969977628</v>
+        <v>29.26</v>
       </c>
       <c r="K116" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="L116" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="M116" t="n">
         <v>1838.77</v>
       </c>
     </row>
@@ -6157,30 +5457,24 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>90.40870747446812</v>
       </c>
       <c r="H117" t="n">
-        <v>93</v>
+        <v>90.40870747446812</v>
       </c>
       <c r="I117" t="n">
-        <v>90.40870747446812</v>
+        <v>29.77</v>
       </c>
       <c r="J117" t="n">
-        <v>90.40870747446812</v>
+        <v>29.74</v>
       </c>
       <c r="K117" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="L117" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="M117" t="n">
         <v>3688</v>
       </c>
     </row>
@@ -6206,30 +5500,24 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>16</v>
+        <v>58.85598520954735</v>
       </c>
       <c r="H118" t="n">
-        <v>60</v>
+        <v>56.66457548769969</v>
       </c>
       <c r="I118" t="n">
-        <v>58.85598520954735</v>
+        <v>21.44</v>
       </c>
       <c r="J118" t="n">
-        <v>56.66457548769969</v>
+        <v>46.63</v>
       </c>
       <c r="K118" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="L118" t="n">
-        <v>46.63</v>
-      </c>
-      <c r="M118" t="n">
         <v>2999.25</v>
       </c>
     </row>
@@ -6255,30 +5543,24 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F119" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G119" t="n">
-        <v>32</v>
+        <v>66.79337937128457</v>
       </c>
       <c r="H119" t="n">
-        <v>67</v>
+        <v>65.48719276425226</v>
       </c>
       <c r="I119" t="n">
-        <v>66.79337937128457</v>
+        <v>21.73</v>
       </c>
       <c r="J119" t="n">
-        <v>65.48719276425226</v>
+        <v>14.18</v>
       </c>
       <c r="K119" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="L119" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="M119" t="n">
         <v>1776.36</v>
       </c>
     </row>
@@ -6304,30 +5586,24 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G120" t="n">
-        <v>18</v>
+        <v>70.82348730591765</v>
       </c>
       <c r="H120" t="n">
-        <v>78</v>
+        <v>69.05803514576129</v>
       </c>
       <c r="I120" t="n">
-        <v>70.82348730591765</v>
+        <v>24.53</v>
       </c>
       <c r="J120" t="n">
-        <v>69.05803514576129</v>
+        <v>33.61</v>
       </c>
       <c r="K120" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="L120" t="n">
-        <v>33.61</v>
-      </c>
-      <c r="M120" t="n">
         <v>3035.4</v>
       </c>
     </row>
@@ -6353,30 +5629,24 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F121" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G121" t="n">
-        <v>28</v>
+        <v>61.87883273129375</v>
       </c>
       <c r="H121" t="n">
-        <v>62</v>
+        <v>59.68401202963443</v>
       </c>
       <c r="I121" t="n">
-        <v>61.87883273129375</v>
+        <v>19.51</v>
       </c>
       <c r="J121" t="n">
-        <v>59.68401202963443</v>
+        <v>25.94</v>
       </c>
       <c r="K121" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="L121" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="M121" t="n">
         <v>1764.17</v>
       </c>
     </row>
@@ -6402,30 +5672,24 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F122" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G122" t="n">
-        <v>30</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="H122" t="n">
-        <v>56</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="I122" t="n">
-        <v>55.9885468929738</v>
+        <v>18.59</v>
       </c>
       <c r="J122" t="n">
-        <v>55.9885468929738</v>
+        <v>21.27</v>
       </c>
       <c r="K122" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="L122" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="M122" t="n">
         <v>1635.4</v>
       </c>
     </row>
@@ -6451,30 +5715,24 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F123" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G123" t="n">
-        <v>29</v>
+        <v>53.07642867423606</v>
       </c>
       <c r="H123" t="n">
-        <v>53</v>
+        <v>52.95192029973887</v>
       </c>
       <c r="I123" t="n">
-        <v>53.07642867423606</v>
+        <v>16.96</v>
       </c>
       <c r="J123" t="n">
-        <v>52.95192029973887</v>
+        <v>25.19</v>
       </c>
       <c r="K123" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="L123" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="M123" t="n">
         <v>1617.5</v>
       </c>
     </row>
@@ -6500,30 +5758,24 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F124" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G124" t="n">
-        <v>26</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="H124" t="n">
-        <v>47</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="I124" t="n">
-        <v>44.57072617497598</v>
+        <v>14.84</v>
       </c>
       <c r="J124" t="n">
-        <v>44.57072617497598</v>
+        <v>40.05</v>
       </c>
       <c r="K124" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="L124" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="M124" t="n">
         <v>1753.86</v>
       </c>
     </row>
@@ -6549,30 +5801,24 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G125" t="n">
-        <v>30</v>
+        <v>57.7823850395153</v>
       </c>
       <c r="H125" t="n">
-        <v>58</v>
+        <v>57.7823850395153</v>
       </c>
       <c r="I125" t="n">
-        <v>57.7823850395153</v>
+        <v>17.1</v>
       </c>
       <c r="J125" t="n">
-        <v>57.7823850395153</v>
+        <v>19.14</v>
       </c>
       <c r="K125" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="L125" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="M125" t="n">
         <v>1304.07</v>
       </c>
     </row>
@@ -6598,30 +5844,24 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F126" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G126" t="n">
-        <v>30</v>
+        <v>36.76858640617366</v>
       </c>
       <c r="H126" t="n">
-        <v>38</v>
+        <v>34.78235881595512</v>
       </c>
       <c r="I126" t="n">
-        <v>36.76858640617366</v>
+        <v>12.68</v>
       </c>
       <c r="J126" t="n">
-        <v>34.78235881595512</v>
+        <v>20.69</v>
       </c>
       <c r="K126" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="L126" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="M126" t="n">
         <v>1134.02</v>
       </c>
     </row>
@@ -6647,30 +5887,24 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F127" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G127" t="n">
-        <v>14</v>
+        <v>69.06809975461748</v>
       </c>
       <c r="H127" t="n">
-        <v>72</v>
+        <v>69.06809975461748</v>
       </c>
       <c r="I127" t="n">
-        <v>69.06809975461748</v>
+        <v>26.48</v>
       </c>
       <c r="J127" t="n">
-        <v>69.06809975461748</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="L127" t="n">
-        <v>73.98999999999999</v>
-      </c>
-      <c r="M127" t="n">
         <v>4857.97</v>
       </c>
     </row>
@@ -6696,30 +5930,24 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F128" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G128" t="n">
-        <v>30</v>
+        <v>60.89424729233652</v>
       </c>
       <c r="H128" t="n">
-        <v>62</v>
+        <v>55.91152654001202</v>
       </c>
       <c r="I128" t="n">
-        <v>60.89424729233652</v>
+        <v>18.84</v>
       </c>
       <c r="J128" t="n">
-        <v>55.91152654001202</v>
+        <v>20.08</v>
       </c>
       <c r="K128" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="L128" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="M128" t="n">
         <v>1644.6</v>
       </c>
     </row>
@@ -6745,30 +5973,24 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F129" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G129" t="n">
-        <v>30</v>
+        <v>51.34405652741073</v>
       </c>
       <c r="H129" t="n">
-        <v>52</v>
+        <v>48.31325990394013</v>
       </c>
       <c r="I129" t="n">
-        <v>51.34405652741073</v>
+        <v>15.76</v>
       </c>
       <c r="J129" t="n">
-        <v>48.31325990394013</v>
+        <v>18.73</v>
       </c>
       <c r="K129" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="L129" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="M129" t="n">
         <v>1374.58</v>
       </c>
     </row>
@@ -6794,30 +6016,24 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F130" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G130" t="n">
-        <v>16</v>
+        <v>33.01268612137392</v>
       </c>
       <c r="H130" t="n">
-        <v>33</v>
+        <v>26.99326575465804</v>
       </c>
       <c r="I130" t="n">
-        <v>33.01268612137392</v>
+        <v>11.31</v>
       </c>
       <c r="J130" t="n">
-        <v>26.99326575465804</v>
+        <v>31.53</v>
       </c>
       <c r="K130" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L130" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="M130" t="n">
         <v>1529.84</v>
       </c>
     </row>
@@ -6843,30 +6059,24 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F131" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>16</v>
+        <v>64.08209154372676</v>
       </c>
       <c r="H131" t="n">
-        <v>65</v>
+        <v>64.08209154372676</v>
       </c>
       <c r="I131" t="n">
-        <v>64.08209154372676</v>
+        <v>23.21</v>
       </c>
       <c r="J131" t="n">
-        <v>64.08209154372676</v>
+        <v>51.98</v>
       </c>
       <c r="K131" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="L131" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="M131" t="n">
         <v>3412.2</v>
       </c>
     </row>
@@ -6892,30 +6102,24 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G132" t="n">
-        <v>28</v>
+        <v>36.87715457384766</v>
       </c>
       <c r="H132" t="n">
-        <v>37</v>
+        <v>32.47671713724356</v>
       </c>
       <c r="I132" t="n">
-        <v>36.87715457384766</v>
+        <v>11.18</v>
       </c>
       <c r="J132" t="n">
-        <v>32.47671713724356</v>
+        <v>13.63</v>
       </c>
       <c r="K132" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="L132" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="M132" t="n">
         <v>955.5</v>
       </c>
     </row>
@@ -6941,30 +6145,24 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G133" t="n">
-        <v>28</v>
+        <v>46.36895741068632</v>
       </c>
       <c r="H133" t="n">
-        <v>48</v>
+        <v>45.43427719026023</v>
       </c>
       <c r="I133" t="n">
-        <v>46.36895741068632</v>
+        <v>14.82</v>
       </c>
       <c r="J133" t="n">
-        <v>45.43427719026023</v>
+        <v>21.055</v>
       </c>
       <c r="K133" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="L133" t="n">
-        <v>21.055</v>
-      </c>
-      <c r="M133" t="n">
         <v>1376.085</v>
       </c>
     </row>
@@ -6990,30 +6188,24 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G134" t="n">
-        <v>28</v>
+        <v>52.23470749059706</v>
       </c>
       <c r="H134" t="n">
-        <v>52</v>
+        <v>52.23470749059706</v>
       </c>
       <c r="I134" t="n">
-        <v>52.23470749059706</v>
+        <v>17.03</v>
       </c>
       <c r="J134" t="n">
-        <v>52.23470749059706</v>
+        <v>31.02</v>
       </c>
       <c r="K134" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="L134" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="M134" t="n">
         <v>1735.17</v>
       </c>
     </row>
@@ -7039,30 +6231,24 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F135" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G135" t="n">
-        <v>30</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="H135" t="n">
-        <v>52</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="I135" t="n">
-        <v>51.85345214260659</v>
+        <v>17.89</v>
       </c>
       <c r="J135" t="n">
-        <v>51.85345214260659</v>
+        <v>33.3</v>
       </c>
       <c r="K135" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="L135" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="M135" t="n">
         <v>1751.87</v>
       </c>
     </row>
@@ -7088,30 +6274,24 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F136" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G136" t="n">
-        <v>16</v>
+        <v>37.620481659463</v>
       </c>
       <c r="H136" t="n">
-        <v>39</v>
+        <v>34.71643324325585</v>
       </c>
       <c r="I136" t="n">
-        <v>37.620481659463</v>
+        <v>12.69</v>
       </c>
       <c r="J136" t="n">
-        <v>34.71643324325585</v>
+        <v>31.63</v>
       </c>
       <c r="K136" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="L136" t="n">
-        <v>31.63</v>
-      </c>
-      <c r="M136" t="n">
         <v>1607.09</v>
       </c>
     </row>
@@ -7137,30 +6317,24 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F137" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="n">
-        <v>30</v>
+        <v>30.2652756327663</v>
       </c>
       <c r="H137" t="n">
-        <v>31</v>
+        <v>26.69714947367789</v>
       </c>
       <c r="I137" t="n">
-        <v>30.2652756327663</v>
+        <v>11.32</v>
       </c>
       <c r="J137" t="n">
-        <v>26.69714947367789</v>
+        <v>32.63</v>
       </c>
       <c r="K137" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="L137" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="M137" t="n">
         <v>1106.22</v>
       </c>
     </row>
@@ -7186,30 +6360,24 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F138" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G138" t="n">
-        <v>16</v>
+        <v>89.44072787074697</v>
       </c>
       <c r="H138" t="n">
-        <v>93</v>
+        <v>75.73319788168175</v>
       </c>
       <c r="I138" t="n">
-        <v>89.44072787074697</v>
+        <v>29.56</v>
       </c>
       <c r="J138" t="n">
-        <v>75.73319788168175</v>
+        <v>38.55</v>
       </c>
       <c r="K138" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="L138" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="M138" t="n">
         <v>4279.67</v>
       </c>
     </row>
@@ -7235,30 +6403,24 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F139" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G139" t="n">
-        <v>16</v>
+        <v>71.95572669196675</v>
       </c>
       <c r="H139" t="n">
-        <v>74</v>
+        <v>59.49603948931558</v>
       </c>
       <c r="I139" t="n">
-        <v>71.95572669196675</v>
+        <v>24.87</v>
       </c>
       <c r="J139" t="n">
-        <v>59.49603948931558</v>
+        <v>38.94</v>
       </c>
       <c r="K139" t="n">
-        <v>24.87</v>
-      </c>
-      <c r="L139" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="M139" t="n">
         <v>3687.82</v>
       </c>
     </row>
@@ -7284,30 +6446,24 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F140" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="G140" t="n">
-        <v>30</v>
+        <v>130.7115225493653</v>
       </c>
       <c r="H140" t="n">
-        <v>143</v>
+        <v>120.4072559039201</v>
       </c>
       <c r="I140" t="n">
-        <v>130.7115225493653</v>
+        <v>46.91</v>
       </c>
       <c r="J140" t="n">
-        <v>120.4072559039201</v>
+        <v>26.99</v>
       </c>
       <c r="K140" t="n">
-        <v>46.91</v>
-      </c>
-      <c r="L140" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="M140" t="n">
         <v>4245.61</v>
       </c>
     </row>
@@ -7333,30 +6489,24 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G141" t="n">
-        <v>14</v>
+        <v>64.95735375722688</v>
       </c>
       <c r="H141" t="n">
-        <v>71</v>
+        <v>58.47035590841362</v>
       </c>
       <c r="I141" t="n">
-        <v>64.95735375722688</v>
+        <v>25.72</v>
       </c>
       <c r="J141" t="n">
-        <v>58.47035590841362</v>
+        <v>64.94</v>
       </c>
       <c r="K141" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="L141" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="M141" t="n">
         <v>4534.51</v>
       </c>
     </row>
@@ -7382,30 +6532,24 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F142" t="n">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G142" t="n">
-        <v>16</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="H142" t="n">
-        <v>111</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="I142" t="n">
-        <v>109.9967076976229</v>
+        <v>42.08</v>
       </c>
       <c r="J142" t="n">
-        <v>109.9967076976229</v>
+        <v>47.33</v>
       </c>
       <c r="K142" t="n">
-        <v>42.08</v>
-      </c>
-      <c r="L142" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="M142" t="n">
         <v>6373.27</v>
       </c>
     </row>
@@ -7431,30 +6575,24 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F143" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G143" t="n">
-        <v>16</v>
+        <v>87.46482733403951</v>
       </c>
       <c r="H143" t="n">
-        <v>89</v>
+        <v>72.92630677718111</v>
       </c>
       <c r="I143" t="n">
-        <v>87.46482733403951</v>
+        <v>30</v>
       </c>
       <c r="J143" t="n">
-        <v>72.92630677718111</v>
+        <v>41.43</v>
       </c>
       <c r="K143" t="n">
-        <v>30</v>
-      </c>
-      <c r="L143" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="M143" t="n">
         <v>4296.01</v>
       </c>
     </row>
@@ -7480,30 +6618,24 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F144" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G144" t="n">
-        <v>54</v>
+        <v>13.02515750336005</v>
       </c>
       <c r="H144" t="n">
-        <v>14</v>
+        <v>14.6407754314166</v>
       </c>
       <c r="I144" t="n">
-        <v>13.02515750336005</v>
+        <v>6.44</v>
       </c>
       <c r="J144" t="n">
-        <v>14.6407754314166</v>
+        <v>88.44</v>
       </c>
       <c r="K144" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="L144" t="n">
-        <v>88.44</v>
-      </c>
-      <c r="M144" t="n">
         <v>1481.93</v>
       </c>
     </row>
@@ -7529,30 +6661,24 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F145" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G145" t="n">
-        <v>30</v>
+        <v>49.03243047302874</v>
       </c>
       <c r="H145" t="n">
-        <v>55</v>
+        <v>46.3442501813324</v>
       </c>
       <c r="I145" t="n">
-        <v>49.03243047302874</v>
+        <v>19.85</v>
       </c>
       <c r="J145" t="n">
-        <v>46.3442501813324</v>
+        <v>43.57</v>
       </c>
       <c r="K145" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="L145" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="M145" t="n">
         <v>2638.62</v>
       </c>
     </row>
@@ -7578,30 +6704,24 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F146" t="n">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G146" t="n">
-        <v>16</v>
+        <v>88.55984297197256</v>
       </c>
       <c r="H146" t="n">
-        <v>94</v>
+        <v>81.45850855120113</v>
       </c>
       <c r="I146" t="n">
-        <v>88.55984297197256</v>
+        <v>30.755</v>
       </c>
       <c r="J146" t="n">
-        <v>81.45850855120113</v>
+        <v>47.715</v>
       </c>
       <c r="K146" t="n">
-        <v>30.755</v>
-      </c>
-      <c r="L146" t="n">
-        <v>47.715</v>
-      </c>
-      <c r="M146" t="n">
         <v>4578.285</v>
       </c>
     </row>

--- a/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/[2] Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -527,10 +522,7 @@
         <v>7.736666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>14.59666666666667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675.9400000000001</v>
+        <v>468.3933333333334</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +562,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1527.07</v>
+        <v>1051.97</v>
       </c>
     </row>
     <row r="4">
@@ -613,10 +602,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1022.91</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +642,7 @@
         <v>10.69</v>
       </c>
       <c r="J5" t="n">
-        <v>45.06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1560.3</v>
+        <v>1046.8</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +682,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>900.88</v>
+        <v>536.6799999999999</v>
       </c>
     </row>
     <row r="7">
@@ -742,10 +722,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>998.4299999999999</v>
+        <v>642.09</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +762,7 @@
         <v>9.57</v>
       </c>
       <c r="J8" t="n">
-        <v>32.525</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1292.09</v>
+        <v>814.1949999999999</v>
       </c>
     </row>
     <row r="9">
@@ -828,10 +802,7 @@
         <v>23.94</v>
       </c>
       <c r="J9" t="n">
-        <v>88.04000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4554.62</v>
+        <v>2812.6</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +842,7 @@
         <v>20.31</v>
       </c>
       <c r="J10" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3190.26</v>
+        <v>1999.97</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +882,7 @@
         <v>27.95</v>
       </c>
       <c r="J11" t="n">
-        <v>63.85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4441.71</v>
+        <v>2993.42</v>
       </c>
     </row>
     <row r="12">
@@ -957,10 +922,7 @@
         <v>20.2</v>
       </c>
       <c r="J12" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2962.44</v>
+        <v>1909.92</v>
       </c>
     </row>
     <row r="13">
@@ -1000,10 +962,7 @@
         <v>33.76</v>
       </c>
       <c r="J13" t="n">
-        <v>68.17</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6069.61</v>
+        <v>3759.36</v>
       </c>
     </row>
     <row r="14">
@@ -1043,10 +1002,7 @@
         <v>22.55</v>
       </c>
       <c r="J14" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2333.51</v>
+        <v>1445.66</v>
       </c>
     </row>
     <row r="15">
@@ -1086,10 +1042,7 @@
         <v>25.015</v>
       </c>
       <c r="J15" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3870.135</v>
+        <v>2621.805</v>
       </c>
     </row>
     <row r="16">
@@ -1129,10 +1082,7 @@
         <v>23.41</v>
       </c>
       <c r="J16" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2279.12</v>
+        <v>1432.47</v>
       </c>
     </row>
     <row r="17">
@@ -1172,10 +1122,7 @@
         <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3149.63</v>
+        <v>2179.09</v>
       </c>
     </row>
     <row r="18">
@@ -1215,10 +1162,7 @@
         <v>12.75</v>
       </c>
       <c r="J18" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1285.94</v>
+        <v>840.42</v>
       </c>
     </row>
     <row r="19">
@@ -1258,10 +1202,7 @@
         <v>16.8</v>
       </c>
       <c r="J19" t="n">
-        <v>42.67</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2527.21</v>
+        <v>1658.05</v>
       </c>
     </row>
     <row r="20">
@@ -1301,10 +1242,7 @@
         <v>16.31</v>
       </c>
       <c r="J20" t="n">
-        <v>76.73</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3020.08</v>
+        <v>1932.1</v>
       </c>
     </row>
     <row r="21">
@@ -1344,10 +1282,7 @@
         <v>22.47</v>
       </c>
       <c r="J21" t="n">
-        <v>55.65</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3430.23</v>
+        <v>2195.84</v>
       </c>
     </row>
     <row r="22">
@@ -1387,10 +1322,7 @@
         <v>14.61</v>
       </c>
       <c r="J22" t="n">
-        <v>48.17</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2048.13</v>
+        <v>1397.02</v>
       </c>
     </row>
     <row r="23">
@@ -1430,10 +1362,7 @@
         <v>25.565</v>
       </c>
       <c r="J23" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4147.379999999999</v>
+        <v>2696.165</v>
       </c>
     </row>
     <row r="24">
@@ -1473,10 +1402,7 @@
         <v>12.88</v>
       </c>
       <c r="J24" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1371.13</v>
+        <v>887.21</v>
       </c>
     </row>
     <row r="25">
@@ -1516,10 +1442,7 @@
         <v>12.6</v>
       </c>
       <c r="J25" t="n">
-        <v>41.29</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1892.19</v>
+        <v>1263.65</v>
       </c>
     </row>
     <row r="26">
@@ -1559,10 +1482,7 @@
         <v>9.015000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>38.725</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1192.36</v>
+        <v>832.26</v>
       </c>
     </row>
     <row r="27">
@@ -1602,10 +1522,7 @@
         <v>11.81</v>
       </c>
       <c r="J27" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1210.37</v>
+        <v>724.47</v>
       </c>
     </row>
     <row r="28">
@@ -1645,10 +1562,7 @@
         <v>9.09</v>
       </c>
       <c r="J28" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1095.61</v>
+        <v>686.27</v>
       </c>
     </row>
     <row r="29">
@@ -1688,10 +1602,7 @@
         <v>12.89</v>
       </c>
       <c r="J29" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1197.2</v>
+        <v>808.63</v>
       </c>
     </row>
     <row r="30">
@@ -1731,10 +1642,7 @@
         <v>10.33</v>
       </c>
       <c r="J30" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1107.96</v>
+        <v>676.3099999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1774,10 +1682,7 @@
         <v>8.99</v>
       </c>
       <c r="J31" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1088.55</v>
+        <v>725.25</v>
       </c>
     </row>
     <row r="32">
@@ -1817,10 +1722,7 @@
         <v>9.68</v>
       </c>
       <c r="J32" t="n">
-        <v>37.35</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1364.07</v>
+        <v>910.99</v>
       </c>
     </row>
     <row r="33">
@@ -1860,10 +1762,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1034.56</v>
+        <v>700.97</v>
       </c>
     </row>
     <row r="34">
@@ -1903,10 +1802,7 @@
         <v>10.92</v>
       </c>
       <c r="J34" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1817.25</v>
+        <v>1051.04</v>
       </c>
     </row>
     <row r="35">
@@ -1946,10 +1842,7 @@
         <v>6.25</v>
       </c>
       <c r="J35" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="K35" t="n">
-        <v>680.63</v>
+        <v>489.8</v>
       </c>
     </row>
     <row r="36">
@@ -1989,10 +1882,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>39.85</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1382.74</v>
+        <v>887.8200000000001</v>
       </c>
     </row>
     <row r="37">
@@ -2032,10 +1922,7 @@
         <v>12.22</v>
       </c>
       <c r="J37" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1396.3</v>
+        <v>862.51</v>
       </c>
     </row>
     <row r="38">
@@ -2075,10 +1962,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="K38" t="n">
-        <v>937.85</v>
+        <v>621.92</v>
       </c>
     </row>
     <row r="39">
@@ -2118,10 +2002,7 @@
         <v>10.24</v>
       </c>
       <c r="J39" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1583.9</v>
+        <v>957.24</v>
       </c>
     </row>
     <row r="40">
@@ -2161,10 +2042,7 @@
         <v>11.34</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1332.24</v>
+        <v>799.1</v>
       </c>
     </row>
     <row r="41">
@@ -2204,10 +2082,7 @@
         <v>15.655</v>
       </c>
       <c r="J41" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1905.95</v>
+        <v>1236.08</v>
       </c>
     </row>
     <row r="42">
@@ -2247,10 +2122,7 @@
         <v>27.95</v>
       </c>
       <c r="J42" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4564.14</v>
+        <v>2849.81</v>
       </c>
     </row>
     <row r="43">
@@ -2290,10 +2162,7 @@
         <v>30.35</v>
       </c>
       <c r="J43" t="n">
-        <v>50.18</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4494.74</v>
+        <v>2805.51</v>
       </c>
     </row>
     <row r="44">
@@ -2333,10 +2202,7 @@
         <v>28.495</v>
       </c>
       <c r="J44" t="n">
-        <v>43.915</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4409.985000000001</v>
+        <v>2763.055</v>
       </c>
     </row>
     <row r="45">
@@ -2376,10 +2242,7 @@
         <v>19.62</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2359.18</v>
+        <v>1526.34</v>
       </c>
     </row>
     <row r="46">
@@ -2419,10 +2282,7 @@
         <v>14.05</v>
       </c>
       <c r="J46" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1834.96</v>
+        <v>1230.4</v>
       </c>
     </row>
     <row r="47">
@@ -2462,10 +2322,7 @@
         <v>6.59</v>
       </c>
       <c r="J47" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1118.38</v>
+        <v>681.22</v>
       </c>
     </row>
     <row r="48">
@@ -2505,10 +2362,7 @@
         <v>22.96</v>
       </c>
       <c r="J48" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3612.15</v>
+        <v>2325.46</v>
       </c>
     </row>
     <row r="49">
@@ -2548,10 +2402,7 @@
         <v>16.27</v>
       </c>
       <c r="J49" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1754.07</v>
+        <v>1178.13</v>
       </c>
     </row>
     <row r="50">
@@ -2591,10 +2442,7 @@
         <v>15.9</v>
       </c>
       <c r="J50" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1849.96</v>
+        <v>1172.36</v>
       </c>
     </row>
     <row r="51">
@@ -2634,10 +2482,7 @@
         <v>8.850000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>22.935</v>
-      </c>
-      <c r="K51" t="n">
-        <v>993.3099999999999</v>
+        <v>675.765</v>
       </c>
     </row>
     <row r="52">
@@ -2677,10 +2522,7 @@
         <v>3.74</v>
       </c>
       <c r="J52" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K52" t="n">
-        <v>814.05</v>
+        <v>453.62</v>
       </c>
     </row>
     <row r="53">
@@ -2720,10 +2562,7 @@
         <v>11.41</v>
       </c>
       <c r="J53" t="n">
-        <v>28.575</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1489.095</v>
+        <v>1049.165</v>
       </c>
     </row>
     <row r="54">
@@ -2763,10 +2602,7 @@
         <v>12.67</v>
       </c>
       <c r="J54" t="n">
-        <v>23.195</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1337.01</v>
+        <v>914.55</v>
       </c>
     </row>
     <row r="55">
@@ -2806,10 +2642,7 @@
         <v>42.74</v>
       </c>
       <c r="J55" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4603.86</v>
+        <v>3208.15</v>
       </c>
     </row>
     <row r="56">
@@ -2849,10 +2682,7 @@
         <v>32.65</v>
       </c>
       <c r="J56" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4986.41</v>
+        <v>3064.67</v>
       </c>
     </row>
     <row r="57">
@@ -2892,10 +2722,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>33.305</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4854.77</v>
+        <v>3291.68</v>
       </c>
     </row>
     <row r="58">
@@ -2935,10 +2762,7 @@
         <v>35.56</v>
       </c>
       <c r="J58" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5127.71</v>
+        <v>3252.93</v>
       </c>
     </row>
     <row r="59">
@@ -2978,10 +2802,7 @@
         <v>41.26</v>
       </c>
       <c r="J59" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6939.63</v>
+        <v>4461.71</v>
       </c>
     </row>
     <row r="60">
@@ -3021,10 +2842,7 @@
         <v>39.81</v>
       </c>
       <c r="J60" t="n">
-        <v>37.045</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4898.985000000001</v>
+        <v>3292.935</v>
       </c>
     </row>
     <row r="61">
@@ -3064,10 +2882,7 @@
         <v>35.52</v>
       </c>
       <c r="J61" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="K61" t="n">
-        <v>5713.71</v>
+        <v>3700.78</v>
       </c>
     </row>
     <row r="62">
@@ -3107,10 +2922,7 @@
         <v>21.61</v>
       </c>
       <c r="J62" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3160.41</v>
+        <v>1992.29</v>
       </c>
     </row>
     <row r="63">
@@ -3150,10 +2962,7 @@
         <v>17.45</v>
       </c>
       <c r="J63" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1904.19</v>
+        <v>1020.08</v>
       </c>
     </row>
     <row r="64">
@@ -3193,10 +3002,7 @@
         <v>23.63</v>
       </c>
       <c r="J64" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3586.45</v>
+        <v>2307.69</v>
       </c>
     </row>
     <row r="65">
@@ -3236,10 +3042,7 @@
         <v>26.28</v>
       </c>
       <c r="J65" t="n">
-        <v>54.39</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4000</v>
+        <v>2687.13</v>
       </c>
     </row>
     <row r="66">
@@ -3279,10 +3082,7 @@
         <v>21.75</v>
       </c>
       <c r="J66" t="n">
-        <v>36.39</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2954.34</v>
+        <v>1993.77</v>
       </c>
     </row>
     <row r="67">
@@ -3322,10 +3122,7 @@
         <v>27.11</v>
       </c>
       <c r="J67" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4199.6</v>
+        <v>2711.14</v>
       </c>
     </row>
     <row r="68">
@@ -3365,10 +3162,7 @@
         <v>25.88</v>
       </c>
       <c r="J68" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3543.97</v>
+        <v>2344.5</v>
       </c>
     </row>
     <row r="69">
@@ -3408,10 +3202,7 @@
         <v>24.88</v>
       </c>
       <c r="J69" t="n">
-        <v>42.47666666666667</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3818.593333333334</v>
+        <v>2352.59</v>
       </c>
     </row>
     <row r="70">
@@ -3451,10 +3242,7 @@
         <v>23.3</v>
       </c>
       <c r="J70" t="n">
-        <v>49.615</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3451.505</v>
+        <v>2189.64</v>
       </c>
     </row>
     <row r="71">
@@ -3494,10 +3282,7 @@
         <v>21.08</v>
       </c>
       <c r="J71" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2607.98</v>
+        <v>1700.57</v>
       </c>
     </row>
     <row r="72">
@@ -3537,10 +3322,7 @@
         <v>20.41</v>
       </c>
       <c r="J72" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2513.76</v>
+        <v>1485.64</v>
       </c>
     </row>
     <row r="73">
@@ -3580,10 +3362,7 @@
         <v>13.88</v>
       </c>
       <c r="J73" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1884.88</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="74">
@@ -3623,10 +3402,7 @@
         <v>23.35</v>
       </c>
       <c r="J74" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2670.9</v>
+        <v>1788.04</v>
       </c>
     </row>
     <row r="75">
@@ -3666,10 +3442,7 @@
         <v>22.01</v>
       </c>
       <c r="J75" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2727.98</v>
+        <v>1555.24</v>
       </c>
     </row>
     <row r="76">
@@ -3709,10 +3482,7 @@
         <v>15.45</v>
       </c>
       <c r="J76" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1854.75</v>
+        <v>1179.03</v>
       </c>
     </row>
     <row r="77">
@@ -3752,10 +3522,7 @@
         <v>21.71</v>
       </c>
       <c r="J77" t="n">
-        <v>34.42</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2076.71</v>
+        <v>1385.28</v>
       </c>
     </row>
     <row r="78">
@@ -3795,10 +3562,7 @@
         <v>21.94</v>
       </c>
       <c r="J78" t="n">
-        <v>38</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2870.19</v>
+        <v>1793.7</v>
       </c>
     </row>
     <row r="79">
@@ -3838,10 +3602,7 @@
         <v>18.34</v>
       </c>
       <c r="J79" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2135.85</v>
+        <v>1268.2</v>
       </c>
     </row>
     <row r="80">
@@ -3881,10 +3642,7 @@
         <v>13.125</v>
       </c>
       <c r="J80" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1262.655</v>
+        <v>841.02</v>
       </c>
     </row>
     <row r="81">
@@ -3924,10 +3682,7 @@
         <v>10.41</v>
       </c>
       <c r="J81" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1100.22</v>
+        <v>752.0599999999999</v>
       </c>
     </row>
     <row r="82">
@@ -3967,10 +3722,7 @@
         <v>17.76</v>
       </c>
       <c r="J82" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1762.94</v>
+        <v>1139.38</v>
       </c>
     </row>
     <row r="83">
@@ -4010,10 +3762,7 @@
         <v>21.29</v>
       </c>
       <c r="J83" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2588.28</v>
+        <v>1415.72</v>
       </c>
     </row>
     <row r="84">
@@ -4053,10 +3802,7 @@
         <v>28.24</v>
       </c>
       <c r="J84" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2527.4</v>
+        <v>1699.33</v>
       </c>
     </row>
     <row r="85">
@@ -4096,10 +3842,7 @@
         <v>17.27</v>
       </c>
       <c r="J85" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2051.4</v>
+        <v>1264.79</v>
       </c>
     </row>
     <row r="86">
@@ -4139,10 +3882,7 @@
         <v>18.71</v>
       </c>
       <c r="J86" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2480.36</v>
+        <v>1481.61</v>
       </c>
     </row>
     <row r="87">
@@ -4182,10 +3922,7 @@
         <v>20.49</v>
       </c>
       <c r="J87" t="n">
-        <v>39.87</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3092.92</v>
+        <v>2037.62</v>
       </c>
     </row>
     <row r="88">
@@ -4225,10 +3962,7 @@
         <v>29.94</v>
       </c>
       <c r="J88" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3003.01</v>
+        <v>1936.12</v>
       </c>
     </row>
     <row r="89">
@@ -4268,10 +4002,7 @@
         <v>41.09</v>
       </c>
       <c r="J89" t="n">
-        <v>54.86</v>
-      </c>
-      <c r="K89" t="n">
-        <v>6457.9</v>
+        <v>4353.4</v>
       </c>
     </row>
     <row r="90">
@@ -4311,10 +4042,7 @@
         <v>50.56</v>
       </c>
       <c r="J90" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K90" t="n">
-        <v>7528.27</v>
+        <v>4993.28</v>
       </c>
     </row>
     <row r="91">
@@ -4354,10 +4082,7 @@
         <v>58.81</v>
       </c>
       <c r="J91" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7754.48</v>
+        <v>5343.96</v>
       </c>
     </row>
     <row r="92">
@@ -4397,10 +4122,7 @@
         <v>59.93</v>
       </c>
       <c r="J92" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="K92" t="n">
-        <v>4690.96</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="93">
@@ -4440,10 +4162,7 @@
         <v>44.5</v>
       </c>
       <c r="J93" t="n">
-        <v>44.93</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6199.74</v>
+        <v>4087.63</v>
       </c>
     </row>
     <row r="94">
@@ -4483,10 +4202,7 @@
         <v>43.695</v>
       </c>
       <c r="J94" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5322.295</v>
+        <v>3539.41</v>
       </c>
     </row>
     <row r="95">
@@ -4526,10 +4242,7 @@
         <v>43.99</v>
       </c>
       <c r="J95" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6032.05</v>
+        <v>4206.4</v>
       </c>
     </row>
     <row r="96">
@@ -4569,10 +4282,7 @@
         <v>13.43</v>
       </c>
       <c r="J96" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1437.7</v>
+        <v>951.23</v>
       </c>
     </row>
     <row r="97">
@@ -4612,10 +4322,7 @@
         <v>12.28</v>
       </c>
       <c r="J97" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1398.39</v>
+        <v>952.4349999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4655,10 +4362,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="K98" t="n">
-        <v>872.84</v>
+        <v>588.16</v>
       </c>
     </row>
     <row r="99">
@@ -4698,10 +4402,7 @@
         <v>16.3</v>
       </c>
       <c r="J99" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2593.78</v>
+        <v>1469.92</v>
       </c>
     </row>
     <row r="100">
@@ -4741,10 +4442,7 @@
         <v>12.47</v>
       </c>
       <c r="J100" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1398.13</v>
+        <v>849.1900000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4784,10 +4482,7 @@
         <v>12.83</v>
       </c>
       <c r="J101" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1276.1</v>
+        <v>799.89</v>
       </c>
     </row>
     <row r="102">
@@ -4827,10 +4522,7 @@
         <v>13.62</v>
       </c>
       <c r="J102" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1349.23</v>
+        <v>845.3299999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4870,10 +4562,7 @@
         <v>31.525</v>
       </c>
       <c r="J103" t="n">
-        <v>46.325</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4411.27</v>
+        <v>2892.505</v>
       </c>
     </row>
     <row r="104">
@@ -4913,10 +4602,7 @@
         <v>38.79</v>
       </c>
       <c r="J104" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3553.39</v>
+        <v>2534.11</v>
       </c>
     </row>
     <row r="105">
@@ -4956,10 +4642,7 @@
         <v>30.62</v>
       </c>
       <c r="J105" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5177.13</v>
+        <v>3186.68</v>
       </c>
     </row>
     <row r="106">
@@ -4999,10 +4682,7 @@
         <v>29.4</v>
       </c>
       <c r="J106" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4181.98</v>
+        <v>2878.15</v>
       </c>
     </row>
     <row r="107">
@@ -5042,10 +4722,7 @@
         <v>27.535</v>
       </c>
       <c r="J107" t="n">
-        <v>40.795</v>
-      </c>
-      <c r="K107" t="n">
-        <v>3776.805</v>
+        <v>2564.715</v>
       </c>
     </row>
     <row r="108">
@@ -5085,10 +4762,7 @@
         <v>33.59</v>
       </c>
       <c r="J108" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="K108" t="n">
-        <v>4492.06</v>
+        <v>2998.75</v>
       </c>
     </row>
     <row r="109">
@@ -5128,10 +4802,7 @@
         <v>29.92</v>
       </c>
       <c r="J109" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4140.32</v>
+        <v>2844.67</v>
       </c>
     </row>
     <row r="110">
@@ -5171,10 +4842,7 @@
         <v>31.72</v>
       </c>
       <c r="J110" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4157.56</v>
+        <v>2932.88</v>
       </c>
     </row>
     <row r="111">
@@ -5214,10 +4882,7 @@
         <v>28.95</v>
       </c>
       <c r="J111" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3975.87</v>
+        <v>2761.37</v>
       </c>
     </row>
     <row r="112">
@@ -5257,10 +4922,7 @@
         <v>22.81</v>
       </c>
       <c r="J112" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2189.33</v>
+        <v>1522.77</v>
       </c>
     </row>
     <row r="113">
@@ -5300,10 +4962,7 @@
         <v>25.18</v>
       </c>
       <c r="J113" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="K113" t="n">
-        <v>2541.2</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="114">
@@ -5343,10 +5002,7 @@
         <v>30.01</v>
       </c>
       <c r="J114" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>3923.92</v>
+        <v>2499.62</v>
       </c>
     </row>
     <row r="115">
@@ -5386,10 +5042,7 @@
         <v>26.94</v>
       </c>
       <c r="J115" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K115" t="n">
-        <v>2594.65</v>
+        <v>1717.08</v>
       </c>
     </row>
     <row r="116">
@@ -5429,10 +5082,7 @@
         <v>20.49</v>
       </c>
       <c r="J116" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1838.77</v>
+        <v>1322.89</v>
       </c>
     </row>
     <row r="117">
@@ -5472,10 +5122,7 @@
         <v>29.77</v>
       </c>
       <c r="J117" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3688</v>
+        <v>2442.89</v>
       </c>
     </row>
     <row r="118">
@@ -5515,10 +5162,7 @@
         <v>21.44</v>
       </c>
       <c r="J118" t="n">
-        <v>46.63</v>
-      </c>
-      <c r="K118" t="n">
-        <v>2999.25</v>
+        <v>2269.12</v>
       </c>
     </row>
     <row r="119">
@@ -5558,10 +5202,7 @@
         <v>21.73</v>
       </c>
       <c r="J119" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1776.36</v>
+        <v>1155.6</v>
       </c>
     </row>
     <row r="120">
@@ -5601,10 +5242,7 @@
         <v>24.53</v>
       </c>
       <c r="J120" t="n">
-        <v>33.61</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3035.4</v>
+        <v>2026.57</v>
       </c>
     </row>
     <row r="121">
@@ -5644,10 +5282,7 @@
         <v>19.51</v>
       </c>
       <c r="J121" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1764.17</v>
+        <v>1177.34</v>
       </c>
     </row>
     <row r="122">
@@ -5687,10 +5322,7 @@
         <v>18.59</v>
       </c>
       <c r="J122" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1635.4</v>
+        <v>1026.52</v>
       </c>
     </row>
     <row r="123">
@@ -5730,10 +5362,7 @@
         <v>16.96</v>
       </c>
       <c r="J123" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1617.5</v>
+        <v>1073.665</v>
       </c>
     </row>
     <row r="124">
@@ -5773,10 +5402,7 @@
         <v>14.84</v>
       </c>
       <c r="J124" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1753.86</v>
+        <v>969.1</v>
       </c>
     </row>
     <row r="125">
@@ -5816,10 +5442,7 @@
         <v>17.1</v>
       </c>
       <c r="J125" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1304.07</v>
+        <v>863.9400000000001</v>
       </c>
     </row>
     <row r="126">
@@ -5859,10 +5482,7 @@
         <v>12.68</v>
       </c>
       <c r="J126" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1134.02</v>
+        <v>672.27</v>
       </c>
     </row>
     <row r="127">
@@ -5902,10 +5522,7 @@
         <v>26.48</v>
       </c>
       <c r="J127" t="n">
-        <v>73.98999999999999</v>
-      </c>
-      <c r="K127" t="n">
-        <v>4857.97</v>
+        <v>2964.5</v>
       </c>
     </row>
     <row r="128">
@@ -5945,10 +5562,7 @@
         <v>18.84</v>
       </c>
       <c r="J128" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1644.6</v>
+        <v>1073.4</v>
       </c>
     </row>
     <row r="129">
@@ -5988,10 +5602,7 @@
         <v>15.76</v>
       </c>
       <c r="J129" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1374.58</v>
+        <v>854.74</v>
       </c>
     </row>
     <row r="130">
@@ -6031,10 +5642,7 @@
         <v>11.31</v>
       </c>
       <c r="J130" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1529.84</v>
+        <v>1046.66</v>
       </c>
     </row>
     <row r="131">
@@ -6074,10 +5682,7 @@
         <v>23.21</v>
       </c>
       <c r="J131" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="K131" t="n">
-        <v>3412.2</v>
+        <v>2170.09</v>
       </c>
     </row>
     <row r="132">
@@ -6117,10 +5722,7 @@
         <v>11.18</v>
       </c>
       <c r="J132" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="K132" t="n">
-        <v>955.5</v>
+        <v>643.84</v>
       </c>
     </row>
     <row r="133">
@@ -6160,10 +5762,7 @@
         <v>14.82</v>
       </c>
       <c r="J133" t="n">
-        <v>21.055</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1376.085</v>
+        <v>867.3199999999999</v>
       </c>
     </row>
     <row r="134">
@@ -6203,10 +5802,7 @@
         <v>17.03</v>
       </c>
       <c r="J134" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1735.17</v>
+        <v>1080.64</v>
       </c>
     </row>
     <row r="135">
@@ -6246,10 +5842,7 @@
         <v>17.89</v>
       </c>
       <c r="J135" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1751.87</v>
+        <v>1036.82</v>
       </c>
     </row>
     <row r="136">
@@ -6289,10 +5882,7 @@
         <v>12.69</v>
       </c>
       <c r="J136" t="n">
-        <v>31.63</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1607.09</v>
+        <v>1070.8</v>
       </c>
     </row>
     <row r="137">
@@ -6332,10 +5922,7 @@
         <v>11.32</v>
       </c>
       <c r="J137" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1106.22</v>
+        <v>751.25</v>
       </c>
     </row>
     <row r="138">
@@ -6375,10 +5962,7 @@
         <v>29.56</v>
       </c>
       <c r="J138" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4279.67</v>
+        <v>2901.14</v>
       </c>
     </row>
     <row r="139">
@@ -6418,10 +6002,7 @@
         <v>24.87</v>
       </c>
       <c r="J139" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="K139" t="n">
-        <v>3687.82</v>
+        <v>2352.76</v>
       </c>
     </row>
     <row r="140">
@@ -6461,10 +6042,7 @@
         <v>46.91</v>
       </c>
       <c r="J140" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4245.61</v>
+        <v>3142.61</v>
       </c>
     </row>
     <row r="141">
@@ -6504,10 +6082,7 @@
         <v>25.72</v>
       </c>
       <c r="J141" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4534.51</v>
+        <v>2969.98</v>
       </c>
     </row>
     <row r="142">
@@ -6547,10 +6122,7 @@
         <v>42.08</v>
       </c>
       <c r="J142" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="K142" t="n">
-        <v>6373.27</v>
+        <v>4122.84</v>
       </c>
     </row>
     <row r="143">
@@ -6590,10 +6162,7 @@
         <v>30</v>
       </c>
       <c r="J143" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4296.01</v>
+        <v>2896.93</v>
       </c>
     </row>
     <row r="144">
@@ -6633,10 +6202,7 @@
         <v>6.44</v>
       </c>
       <c r="J144" t="n">
-        <v>88.44</v>
-      </c>
-      <c r="K144" t="n">
-        <v>1481.93</v>
+        <v>829.45</v>
       </c>
     </row>
     <row r="145">
@@ -6676,10 +6242,7 @@
         <v>19.85</v>
       </c>
       <c r="J145" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2638.62</v>
+        <v>1649.52</v>
       </c>
     </row>
     <row r="146">
@@ -6719,10 +6282,7 @@
         <v>30.755</v>
       </c>
       <c r="J146" t="n">
-        <v>47.715</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4578.285</v>
+        <v>3001.135</v>
       </c>
     </row>
   </sheetData>
